--- a/tests/Feature/config/boat_tenpercent.xlsx
+++ b/tests/Feature/config/boat_tenpercent.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>private</t>
   </si>
@@ -106,16 +106,13 @@
     <t>Markedsverdi</t>
   </si>
   <si>
-    <t>% Økning</t>
-  </si>
-  <si>
     <t>Markedsverdi fratrukket lån</t>
   </si>
   <si>
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl renter)</t>
+    <t>Betalt (inkl kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -136,13 +133,10 @@
     <t>Rest evne</t>
   </si>
   <si>
-    <t>FIRE sparing</t>
+    <t>Sparing</t>
   </si>
   <si>
-    <t>FIRE cashflow</t>
-  </si>
-  <si>
-    <t>FIRE sparerate</t>
+    <t>Sparerate</t>
   </si>
   <si>
     <t>Description</t>
@@ -154,16 +148,115 @@
     <t>boat</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 0, decimal: 10 Asset rule 0original er satt til percent: 0, decimal: 1Using previous amount: 0 no transferResource &amp;&amp; transferRule
-</t>
+    <t xml:space="preserve">000 Asset rule </t>
   </si>
   <si>
-    <t xml:space="preserve">0Drivstoff/Forsikring/Vedlikehold/Opplagoriginal er satt til en variabel: changerates.kpi = 10% = 1.1verditap Asset rule 0original er satt til en variabel: changerates.boat = -10% = 0.9Using previous amount: 0 no transferResource &amp;&amp; transferRule
-</t>
+    <t>0Drivstoff/Forsikring/Vedlikehold/Opplagverditap Asset rule Using current amount: 200000 * 1</t>
   </si>
   <si>
-    <t xml:space="preserve">00original er satt til percent: 10, decimal: 1.10 Asset rule 0original er satt til percent: -10, decimal: 0.9Using previous amount: 0 no transferResource &amp;&amp; transferRule
-</t>
+    <t>000 Asset rule Using current amount: 180000 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 162000 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 145800 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 131220 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 118098 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 106288 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 95659 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 86093 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 77484 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 69736 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 62762 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 56486 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 50837 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 45753 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 41178 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 37060 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 33354 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 30019 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 27017 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 24315 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 21884 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 19696 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 17726 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 15953 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 14358 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 12922 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 11630 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 10467 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 9420 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 8478 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 7630 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 6867 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 6180 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 5562 * 1</t>
+  </si>
+  <si>
+    <t>000 Asset rule Using current amount: 5006 * 1</t>
   </si>
 </sst>
 </file>
@@ -561,7 +654,7 @@
   <dimension ref="A1:AG80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A72" sqref="A72:AD72"/>
+      <selection activeCell="A72" sqref="A72:AF72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -570,7 +663,7 @@
     <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -582,16 +675,20 @@
     <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -646,7 +743,7 @@
       <c r="Z4" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -700,22 +797,22 @@
         <v>28</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>19</v>
@@ -727,28 +824,28 @@
         <v>7</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" t="s">
         <v>39</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AG5" t="s">
         <v>40</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -759,16 +856,20 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="1">
         <v>0</v>
@@ -779,15 +880,23 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6" s="2"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="R6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
       <c r="U6" s="6">
         <v>0</v>
       </c>
@@ -809,7 +918,7 @@
       <c r="AC6" s="1">
         <v>0</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6"/>
@@ -823,16 +932,20 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="1">
         <v>0</v>
@@ -843,15 +956,23 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" s="2"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="R7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
       <c r="U7" s="6">
         <v>0</v>
       </c>
@@ -873,7 +994,7 @@
       <c r="AC7" s="1">
         <v>0</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7"/>
@@ -887,16 +1008,20 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="1">
         <v>0</v>
@@ -907,15 +1032,23 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" s="2"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="R8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
       <c r="U8" s="6">
         <v>0</v>
       </c>
@@ -937,7 +1070,7 @@
       <c r="AC8" s="1">
         <v>0</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8"/>
@@ -951,16 +1084,20 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="1">
         <v>0</v>
@@ -971,15 +1108,23 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" s="2"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="R9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
       <c r="U9" s="6">
         <v>0</v>
       </c>
@@ -1001,7 +1146,7 @@
       <c r="AC9" s="1">
         <v>0</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9"/>
@@ -1015,16 +1160,20 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="1">
         <v>0</v>
@@ -1035,15 +1184,23 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" s="2"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="R10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
       <c r="U10" s="6">
         <v>0</v>
       </c>
@@ -1065,7 +1222,7 @@
       <c r="AC10" s="1">
         <v>0</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10"/>
@@ -1079,16 +1236,20 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="1">
         <v>0</v>
@@ -1099,15 +1260,23 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="R11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
       <c r="U11" s="6">
         <v>0</v>
       </c>
@@ -1129,7 +1298,7 @@
       <c r="AC11" s="1">
         <v>0</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11"/>
@@ -1143,16 +1312,20 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="1">
         <v>0</v>
@@ -1163,15 +1336,23 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q12" s="2"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="R12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
       <c r="U12" s="6">
         <v>0</v>
       </c>
@@ -1193,7 +1374,7 @@
       <c r="AC12" s="1">
         <v>0</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12"/>
@@ -1207,16 +1388,20 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="1">
         <v>0</v>
@@ -1227,15 +1412,23 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" s="2"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="R13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
       <c r="U13" s="6">
         <v>0</v>
       </c>
@@ -1257,7 +1450,7 @@
       <c r="AC13" s="1">
         <v>0</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13"/>
@@ -1271,16 +1464,20 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="1">
         <v>0</v>
@@ -1291,15 +1488,23 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" s="2"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+      <c r="R14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
       <c r="U14" s="6">
         <v>0</v>
       </c>
@@ -1321,7 +1526,7 @@
       <c r="AC14" s="1">
         <v>0</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14"/>
@@ -1335,16 +1540,20 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="1">
         <v>0</v>
@@ -1355,15 +1564,23 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" s="2"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="R15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
       <c r="U15" s="6">
         <v>0</v>
       </c>
@@ -1385,7 +1602,7 @@
       <c r="AC15" s="1">
         <v>0</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15"/>
@@ -1399,16 +1616,20 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="1">
         <v>0</v>
@@ -1419,15 +1640,23 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" s="2"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+      <c r="R16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
       <c r="U16" s="6">
         <v>0</v>
       </c>
@@ -1449,7 +1678,7 @@
       <c r="AC16" s="1">
         <v>0</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16"/>
@@ -1463,16 +1692,20 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="1">
         <v>0</v>
@@ -1483,15 +1716,23 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17" s="2"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
+      <c r="R17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
       <c r="U17" s="6">
         <v>0</v>
       </c>
@@ -1513,7 +1754,7 @@
       <c r="AC17" s="1">
         <v>0</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17"/>
@@ -1527,16 +1768,20 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="1">
         <v>0</v>
@@ -1547,15 +1792,23 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q18" s="2"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+      <c r="R18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
       <c r="U18" s="6">
         <v>0</v>
       </c>
@@ -1577,7 +1830,7 @@
       <c r="AC18" s="1">
         <v>0</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18"/>
@@ -1591,16 +1844,20 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="1">
         <v>0</v>
@@ -1611,15 +1868,23 @@
       <c r="M19" s="1">
         <v>0</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q19" s="2"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="R19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
       <c r="U19" s="6">
         <v>0</v>
       </c>
@@ -1641,7 +1906,7 @@
       <c r="AC19" s="1">
         <v>0</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19"/>
@@ -1655,16 +1920,20 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="1">
         <v>0</v>
@@ -1675,15 +1944,23 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" s="2"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="R20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
       <c r="U20" s="6">
         <v>0</v>
       </c>
@@ -1705,7 +1982,7 @@
       <c r="AC20" s="1">
         <v>0</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20"/>
@@ -1719,16 +1996,20 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="1">
         <v>0</v>
@@ -1739,15 +2020,23 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q21" s="2"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
+      <c r="R21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
       <c r="U21" s="6">
         <v>0</v>
       </c>
@@ -1769,7 +2058,7 @@
       <c r="AC21" s="1">
         <v>0</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21"/>
@@ -1783,16 +2072,20 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="1">
         <v>0</v>
@@ -1803,15 +2096,23 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" s="2"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+      <c r="R22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
       <c r="U22" s="6">
         <v>0</v>
       </c>
@@ -1833,7 +2134,7 @@
       <c r="AC22" s="1">
         <v>0</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22"/>
@@ -1847,16 +2148,20 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="1">
         <v>0</v>
@@ -1867,15 +2172,23 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q23" s="2"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+      <c r="R23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
       <c r="U23" s="6">
         <v>0</v>
       </c>
@@ -1897,7 +2210,7 @@
       <c r="AC23" s="1">
         <v>0</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23"/>
@@ -1911,16 +2224,20 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="1">
         <v>0</v>
@@ -1931,15 +2248,23 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" s="2"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+      <c r="R24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
       <c r="U24" s="6">
         <v>0</v>
       </c>
@@ -1961,7 +2286,7 @@
       <c r="AC24" s="1">
         <v>0</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD24">
         <v>0</v>
       </c>
       <c r="AE24"/>
@@ -1975,16 +2300,20 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="1">
         <v>0</v>
@@ -1995,15 +2324,23 @@
       <c r="M25" s="1">
         <v>0</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" s="2"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
+      <c r="R25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
       <c r="U25" s="6">
         <v>0</v>
       </c>
@@ -2025,7 +2362,7 @@
       <c r="AC25" s="1">
         <v>0</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25"/>
@@ -2039,16 +2376,20 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="1">
         <v>0</v>
@@ -2059,15 +2400,23 @@
       <c r="M26" s="1">
         <v>0</v>
       </c>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q26" s="2"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+      <c r="R26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
       <c r="U26" s="6">
         <v>0</v>
       </c>
@@ -2089,7 +2438,7 @@
       <c r="AC26" s="1">
         <v>0</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD26">
         <v>0</v>
       </c>
       <c r="AE26"/>
@@ -2103,16 +2452,20 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="1">
         <v>0</v>
@@ -2123,15 +2476,23 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" s="2"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
+      <c r="R27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
       <c r="U27" s="6">
         <v>0</v>
       </c>
@@ -2153,7 +2514,7 @@
       <c r="AC27" s="1">
         <v>0</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AD27">
         <v>0</v>
       </c>
       <c r="AE27"/>
@@ -2167,16 +2528,20 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="1">
         <v>0</v>
@@ -2187,15 +2552,23 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q28" s="2"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
+      <c r="R28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
       <c r="U28" s="6">
         <v>0</v>
       </c>
@@ -2217,7 +2590,7 @@
       <c r="AC28" s="1">
         <v>0</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28"/>
@@ -2231,16 +2604,20 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="1">
         <v>0</v>
@@ -2251,15 +2628,23 @@
       <c r="M29" s="1">
         <v>0</v>
       </c>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q29" s="2"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
+      <c r="R29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
       <c r="U29" s="6">
         <v>0</v>
       </c>
@@ -2281,7 +2666,7 @@
       <c r="AC29" s="1">
         <v>0</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29"/>
@@ -2295,16 +2680,20 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H30" s="2"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="1">
         <v>0</v>
@@ -2315,15 +2704,23 @@
       <c r="M30" s="1">
         <v>0</v>
       </c>
-      <c r="N30" s="1"/>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q30" s="2"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
+      <c r="R30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
       <c r="U30" s="6">
         <v>0</v>
       </c>
@@ -2345,7 +2742,7 @@
       <c r="AC30" s="1">
         <v>0</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AD30">
         <v>0</v>
       </c>
       <c r="AE30"/>
@@ -2359,16 +2756,20 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="1">
         <v>0</v>
@@ -2379,15 +2780,23 @@
       <c r="M31" s="1">
         <v>0</v>
       </c>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q31" s="2"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
+      <c r="R31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
       <c r="U31" s="6">
         <v>0</v>
       </c>
@@ -2409,7 +2818,7 @@
       <c r="AC31" s="1">
         <v>0</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AD31">
         <v>0</v>
       </c>
       <c r="AE31"/>
@@ -2423,16 +2832,20 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="1">
         <v>0</v>
@@ -2443,15 +2856,23 @@
       <c r="M32" s="1">
         <v>0</v>
       </c>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q32" s="2"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
+      <c r="R32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
       <c r="U32" s="6">
         <v>0</v>
       </c>
@@ -2473,7 +2894,7 @@
       <c r="AC32" s="1">
         <v>0</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AD32">
         <v>0</v>
       </c>
       <c r="AE32"/>
@@ -2487,16 +2908,20 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H33" s="2"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="1">
         <v>0</v>
@@ -2507,15 +2932,23 @@
       <c r="M33" s="1">
         <v>0</v>
       </c>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q33" s="2"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
+      <c r="R33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
       <c r="U33" s="6">
         <v>0</v>
       </c>
@@ -2537,7 +2970,7 @@
       <c r="AC33" s="1">
         <v>0</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AD33">
         <v>0</v>
       </c>
       <c r="AE33"/>
@@ -2551,16 +2984,20 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H34" s="2"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="1">
         <v>0</v>
@@ -2571,15 +3008,23 @@
       <c r="M34" s="1">
         <v>0</v>
       </c>
-      <c r="N34" s="1"/>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q34" s="2"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
+      <c r="R34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
       <c r="U34" s="6">
         <v>0</v>
       </c>
@@ -2601,7 +3046,7 @@
       <c r="AC34" s="1">
         <v>0</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AD34">
         <v>0</v>
       </c>
       <c r="AE34"/>
@@ -2615,16 +3060,20 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="1">
         <v>0</v>
@@ -2635,15 +3084,23 @@
       <c r="M35" s="1">
         <v>0</v>
       </c>
-      <c r="N35" s="1"/>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q35" s="2"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
+      <c r="R35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
       <c r="U35" s="6">
         <v>0</v>
       </c>
@@ -2665,7 +3122,7 @@
       <c r="AC35" s="1">
         <v>0</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AD35">
         <v>0</v>
       </c>
       <c r="AE35"/>
@@ -2679,16 +3136,20 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H36" s="2"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="1">
         <v>0</v>
@@ -2699,15 +3160,23 @@
       <c r="M36" s="1">
         <v>0</v>
       </c>
-      <c r="N36" s="1"/>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q36" s="2"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
+      <c r="R36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
       <c r="U36" s="6">
         <v>0</v>
       </c>
@@ -2729,7 +3198,7 @@
       <c r="AC36" s="1">
         <v>0</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AD36">
         <v>0</v>
       </c>
       <c r="AE36"/>
@@ -2743,16 +3212,20 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>24000</v>
+        <v>2200.0</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H37" s="2"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="1">
         <v>0</v>
@@ -2763,17 +3236,25 @@
       <c r="M37" s="1">
         <v>0</v>
       </c>
-      <c r="N37" s="1"/>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="Q37" s="2"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
+      <c r="R37" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U37" s="6">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
@@ -2781,7 +3262,7 @@
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
-        <v>0.0</v>
+        <v>-2200.0</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
@@ -2793,7 +3274,7 @@
       <c r="AC37" s="1">
         <v>0</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AD37">
         <v>0</v>
       </c>
       <c r="AE37"/>
@@ -2807,16 +3288,20 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>26400</v>
+        <v>2420.0</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="1">
         <v>0</v>
@@ -2827,17 +3312,25 @@
       <c r="M38" s="1">
         <v>0</v>
       </c>
-      <c r="N38" s="1"/>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>0</v>
+        <v>162000.0</v>
       </c>
       <c r="Q38" s="2"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
+      <c r="R38" s="1">
+        <v>162000.0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U38" s="6">
-        <v>0</v>
+        <v>162000</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="1">
@@ -2845,7 +3338,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
-        <v>0.0</v>
+        <v>-2420.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
@@ -2857,7 +3350,7 @@
       <c r="AC38" s="1">
         <v>0</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AD38">
         <v>0</v>
       </c>
       <c r="AE38"/>
@@ -2871,16 +3364,20 @@
         <v>49</v>
       </c>
       <c r="C39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>29040</v>
+        <v>2662.0</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="8"/>
+      <c r="G39" s="8">
+        <v>0.0</v>
+      </c>
       <c r="H39" s="9"/>
-      <c r="I39" s="8"/>
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
       <c r="J39" s="9"/>
       <c r="K39" s="8">
         <v>0</v>
@@ -2891,17 +3388,25 @@
       <c r="M39" s="8">
         <v>0</v>
       </c>
-      <c r="N39" s="8"/>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
-        <v>0</v>
+        <v>145800.0</v>
       </c>
       <c r="Q39" s="9"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
+      <c r="R39" s="8">
+        <v>145800.0</v>
+      </c>
+      <c r="S39" s="8">
+        <v>180000.0</v>
+      </c>
+      <c r="T39" s="8">
+        <v>180000.0</v>
+      </c>
       <c r="U39" s="8">
-        <v>0</v>
+        <v>145800</v>
       </c>
       <c r="V39" s="9"/>
       <c r="W39" s="8">
@@ -2909,7 +3414,7 @@
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="8">
-        <v>0.0</v>
+        <v>-2662.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
@@ -2921,10 +3426,11 @@
       <c r="AC39" s="8">
         <v>0</v>
       </c>
-      <c r="AD39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE39"/>
+      <c r="AD39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
       <c r="AG39"/>
     </row>
     <row r="40" spans="1:33">
@@ -2935,16 +3441,20 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>31944</v>
+        <v>2928.2</v>
       </c>
       <c r="F40" s="12"/>
-      <c r="G40" s="11"/>
+      <c r="G40" s="11">
+        <v>0.0</v>
+      </c>
       <c r="H40" s="12"/>
-      <c r="I40" s="11"/>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
       <c r="J40" s="12"/>
       <c r="K40" s="11">
         <v>0</v>
@@ -2955,17 +3465,25 @@
       <c r="M40" s="11">
         <v>0</v>
       </c>
-      <c r="N40" s="11"/>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>0</v>
+        <v>131220.0</v>
       </c>
       <c r="Q40" s="12"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
+      <c r="R40" s="11">
+        <v>131220.0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>180000.0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>180000.0</v>
+      </c>
       <c r="U40" s="11">
-        <v>0</v>
+        <v>131220</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
@@ -2973,7 +3491,7 @@
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
-        <v>0.0</v>
+        <v>-2928.2</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
@@ -2985,10 +3503,11 @@
       <c r="AC40" s="11">
         <v>0</v>
       </c>
-      <c r="AD40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE40"/>
+      <c r="AD40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
       <c r="AG40"/>
     </row>
     <row r="41" spans="1:33">
@@ -2999,16 +3518,20 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>35138.4</v>
+        <v>3220.8</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="1">
         <v>0</v>
@@ -3019,17 +3542,25 @@
       <c r="M41" s="1">
         <v>0</v>
       </c>
-      <c r="N41" s="1"/>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>0</v>
+        <v>118098.0</v>
       </c>
       <c r="Q41" s="2"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
+      <c r="R41" s="1">
+        <v>118098.0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U41" s="6">
-        <v>0</v>
+        <v>118098</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="1">
@@ -3037,7 +3568,7 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
-        <v>0.0</v>
+        <v>-3220.8</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
@@ -3049,7 +3580,7 @@
       <c r="AC41" s="1">
         <v>0</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AD41">
         <v>0</v>
       </c>
       <c r="AE41"/>
@@ -3063,16 +3594,20 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>38652.24</v>
+        <v>3543.1</v>
       </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H42" s="2"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="1">
         <v>0</v>
@@ -3083,17 +3618,25 @@
       <c r="M42" s="1">
         <v>0</v>
       </c>
-      <c r="N42" s="1"/>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>0</v>
+        <v>106288.0</v>
       </c>
       <c r="Q42" s="2"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
+      <c r="R42" s="1">
+        <v>106288.0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U42" s="6">
-        <v>0</v>
+        <v>106288</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="1">
@@ -3101,7 +3644,7 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
-        <v>0.0</v>
+        <v>-3543.1</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
@@ -3113,7 +3656,7 @@
       <c r="AC42" s="1">
         <v>0</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AD42">
         <v>0</v>
       </c>
       <c r="AE42"/>
@@ -3127,16 +3670,20 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>42517.464</v>
+        <v>3897.3</v>
       </c>
       <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H43" s="2"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="1">
         <v>0</v>
@@ -3147,17 +3694,25 @@
       <c r="M43" s="1">
         <v>0</v>
       </c>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>0</v>
+        <v>95659.0</v>
       </c>
       <c r="Q43" s="2"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
+      <c r="R43" s="1">
+        <v>95659.0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U43" s="6">
-        <v>0</v>
+        <v>95659</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="1">
@@ -3165,7 +3720,7 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
-        <v>0.0</v>
+        <v>-3897.3</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
@@ -3177,7 +3732,7 @@
       <c r="AC43" s="1">
         <v>0</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AD43">
         <v>0</v>
       </c>
       <c r="AE43"/>
@@ -3191,16 +3746,20 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>46769.2104</v>
+        <v>4286.7</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H44" s="2"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="1">
         <v>0</v>
@@ -3211,17 +3770,25 @@
       <c r="M44" s="1">
         <v>0</v>
       </c>
-      <c r="N44" s="1"/>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>0</v>
+        <v>86093.0</v>
       </c>
       <c r="Q44" s="2"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
+      <c r="R44" s="1">
+        <v>86093.0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U44" s="6">
-        <v>0</v>
+        <v>86093</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="1">
@@ -3229,7 +3796,7 @@
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
-        <v>0.0</v>
+        <v>-4286.7</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
@@ -3241,7 +3808,7 @@
       <c r="AC44" s="1">
         <v>0</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AD44">
         <v>0</v>
       </c>
       <c r="AE44"/>
@@ -3255,16 +3822,20 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>51446.13144</v>
+        <v>4715.7</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="1">
         <v>0</v>
@@ -3275,17 +3846,25 @@
       <c r="M45" s="1">
         <v>0</v>
       </c>
-      <c r="N45" s="1"/>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>0</v>
+        <v>77484.0</v>
       </c>
       <c r="Q45" s="2"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
+      <c r="R45" s="1">
+        <v>77484.0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U45" s="6">
-        <v>0</v>
+        <v>77484</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="1">
@@ -3293,7 +3872,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
-        <v>0.0</v>
+        <v>-4715.7</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
@@ -3305,7 +3884,7 @@
       <c r="AC45" s="1">
         <v>0</v>
       </c>
-      <c r="AD45" s="2">
+      <c r="AD45">
         <v>0</v>
       </c>
       <c r="AE45"/>
@@ -3319,16 +3898,20 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>56590.744584</v>
+        <v>5187.6</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="1">
         <v>0</v>
@@ -3339,17 +3922,25 @@
       <c r="M46" s="1">
         <v>0</v>
       </c>
-      <c r="N46" s="1"/>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>0</v>
+        <v>69736.0</v>
       </c>
       <c r="Q46" s="2"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
+      <c r="R46" s="1">
+        <v>69736.0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U46" s="6">
-        <v>0</v>
+        <v>69736</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="1">
@@ -3357,7 +3948,7 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
-        <v>0.0</v>
+        <v>-5187.6</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
@@ -3369,7 +3960,7 @@
       <c r="AC46" s="1">
         <v>0</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AD46">
         <v>0</v>
       </c>
       <c r="AE46"/>
@@ -3383,16 +3974,20 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>62249.8190424</v>
+        <v>5706.8</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
       <c r="J47" s="2"/>
       <c r="K47" s="1">
         <v>0</v>
@@ -3403,17 +3998,25 @@
       <c r="M47" s="1">
         <v>0</v>
       </c>
-      <c r="N47" s="1"/>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>0</v>
+        <v>62762.0</v>
       </c>
       <c r="Q47" s="2"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
+      <c r="R47" s="1">
+        <v>62762.0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U47" s="6">
-        <v>0</v>
+        <v>62762</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="1">
@@ -3421,7 +4024,7 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
-        <v>0.0</v>
+        <v>-5706.8</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
@@ -3433,7 +4036,7 @@
       <c r="AC47" s="1">
         <v>0</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AD47">
         <v>0</v>
       </c>
       <c r="AE47"/>
@@ -3447,16 +4050,20 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>68474.80094664</v>
+        <v>6277.7</v>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H48" s="2"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
       <c r="J48" s="2"/>
       <c r="K48" s="1">
         <v>0</v>
@@ -3467,17 +4074,25 @@
       <c r="M48" s="1">
         <v>0</v>
       </c>
-      <c r="N48" s="1"/>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>0</v>
+        <v>56486.0</v>
       </c>
       <c r="Q48" s="2"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
+      <c r="R48" s="1">
+        <v>56486.0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U48" s="6">
-        <v>0</v>
+        <v>56486</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="1">
@@ -3485,7 +4100,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
-        <v>0.0</v>
+        <v>-6277.7</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
@@ -3497,7 +4112,7 @@
       <c r="AC48" s="1">
         <v>0</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AD48">
         <v>0</v>
       </c>
       <c r="AE48"/>
@@ -3511,16 +4126,20 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>75322.281041304</v>
+        <v>6905.8</v>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
       <c r="J49" s="2"/>
       <c r="K49" s="1">
         <v>0</v>
@@ -3531,17 +4150,25 @@
       <c r="M49" s="1">
         <v>0</v>
       </c>
-      <c r="N49" s="1"/>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>0</v>
+        <v>50837.0</v>
       </c>
       <c r="Q49" s="2"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
+      <c r="R49" s="1">
+        <v>50837.0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U49" s="6">
-        <v>0</v>
+        <v>50837</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="1">
@@ -3549,7 +4176,7 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
-        <v>0.0</v>
+        <v>-6905.8</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
@@ -3561,7 +4188,7 @@
       <c r="AC49" s="1">
         <v>0</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AD49">
         <v>0</v>
       </c>
       <c r="AE49"/>
@@ -3575,16 +4202,20 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>82854.509145434</v>
+        <v>7596.6</v>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H50" s="2"/>
-      <c r="I50" s="1"/>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
       <c r="J50" s="2"/>
       <c r="K50" s="1">
         <v>0</v>
@@ -3595,17 +4226,25 @@
       <c r="M50" s="1">
         <v>0</v>
       </c>
-      <c r="N50" s="1"/>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>0</v>
+        <v>45753.0</v>
       </c>
       <c r="Q50" s="2"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
+      <c r="R50" s="1">
+        <v>45753.0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U50" s="6">
-        <v>0</v>
+        <v>45753</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="1">
@@ -3613,7 +4252,7 @@
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
-        <v>0.0</v>
+        <v>-7596.6</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
@@ -3625,7 +4264,7 @@
       <c r="AC50" s="1">
         <v>0</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AD50">
         <v>0</v>
       </c>
       <c r="AE50"/>
@@ -3639,16 +4278,20 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>91139.960059977</v>
+        <v>8356.7</v>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H51" s="2"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
       <c r="J51" s="2"/>
       <c r="K51" s="1">
         <v>0</v>
@@ -3659,17 +4302,25 @@
       <c r="M51" s="1">
         <v>0</v>
       </c>
-      <c r="N51" s="1"/>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>0</v>
+        <v>41178.0</v>
       </c>
       <c r="Q51" s="2"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
+      <c r="R51" s="1">
+        <v>41178.0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U51" s="6">
-        <v>0</v>
+        <v>41178</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="1">
@@ -3677,7 +4328,7 @@
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
-        <v>0.0</v>
+        <v>-8356.7</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
@@ -3689,7 +4340,7 @@
       <c r="AC51" s="1">
         <v>0</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AD51">
         <v>0</v>
       </c>
       <c r="AE51"/>
@@ -3703,16 +4354,20 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>100253.95606597</v>
+        <v>9192.7</v>
       </c>
       <c r="F52" s="2"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H52" s="2"/>
-      <c r="I52" s="1"/>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
       <c r="J52" s="2"/>
       <c r="K52" s="1">
         <v>0</v>
@@ -3723,17 +4378,25 @@
       <c r="M52" s="1">
         <v>0</v>
       </c>
-      <c r="N52" s="1"/>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>0</v>
+        <v>37060.0</v>
       </c>
       <c r="Q52" s="2"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
+      <c r="R52" s="1">
+        <v>37060.0</v>
+      </c>
+      <c r="S52" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U52" s="6">
-        <v>0</v>
+        <v>37060</v>
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="1">
@@ -3741,7 +4404,7 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
-        <v>0.0</v>
+        <v>-9192.7</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
@@ -3753,7 +4416,7 @@
       <c r="AC52" s="1">
         <v>0</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AD52">
         <v>0</v>
       </c>
       <c r="AE52"/>
@@ -3767,16 +4430,20 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>110279.35167257</v>
+        <v>10112.3</v>
       </c>
       <c r="F53" s="14"/>
-      <c r="G53" s="13"/>
+      <c r="G53" s="13">
+        <v>0.0</v>
+      </c>
       <c r="H53" s="14"/>
-      <c r="I53" s="13"/>
+      <c r="I53" s="13">
+        <v>0</v>
+      </c>
       <c r="J53" s="14"/>
       <c r="K53" s="13">
         <v>0</v>
@@ -3787,17 +4454,25 @@
       <c r="M53" s="13">
         <v>0</v>
       </c>
-      <c r="N53" s="13"/>
+      <c r="N53" s="13">
+        <v>0</v>
+      </c>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>0</v>
+        <v>33354.0</v>
       </c>
       <c r="Q53" s="14"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
+      <c r="R53" s="13">
+        <v>33354.0</v>
+      </c>
+      <c r="S53" s="13">
+        <v>180000.0</v>
+      </c>
+      <c r="T53" s="13">
+        <v>180000.0</v>
+      </c>
       <c r="U53" s="13">
-        <v>0</v>
+        <v>33354</v>
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="13">
@@ -3805,7 +4480,7 @@
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>0.0</v>
+        <v>-10112.3</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
@@ -3817,10 +4492,11 @@
       <c r="AC53" s="13">
         <v>0</v>
       </c>
-      <c r="AD53" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE53"/>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
       <c r="AG53"/>
     </row>
     <row r="54" spans="1:33">
@@ -3831,16 +4507,20 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>121307.28683983</v>
+        <v>11123.2</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="1"/>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
       <c r="J54" s="2"/>
       <c r="K54" s="1">
         <v>0</v>
@@ -3851,17 +4531,25 @@
       <c r="M54" s="1">
         <v>0</v>
       </c>
-      <c r="N54" s="1"/>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>0</v>
+        <v>30019.0</v>
       </c>
       <c r="Q54" s="2"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
+      <c r="R54" s="1">
+        <v>30019.0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T54" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U54" s="6">
-        <v>0</v>
+        <v>30019</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="1">
@@ -3869,7 +4557,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>0.0</v>
+        <v>-11123.2</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
@@ -3881,7 +4569,7 @@
       <c r="AC54" s="1">
         <v>0</v>
       </c>
-      <c r="AD54" s="2">
+      <c r="AD54">
         <v>0</v>
       </c>
       <c r="AE54"/>
@@ -3895,16 +4583,20 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>133438.01552381</v>
+        <v>12235.3</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H55" s="2"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
       <c r="J55" s="2"/>
       <c r="K55" s="1">
         <v>0</v>
@@ -3915,17 +4607,25 @@
       <c r="M55" s="1">
         <v>0</v>
       </c>
-      <c r="N55" s="1"/>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>0</v>
+        <v>27017.0</v>
       </c>
       <c r="Q55" s="2"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
+      <c r="R55" s="1">
+        <v>27017.0</v>
+      </c>
+      <c r="S55" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T55" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U55" s="6">
-        <v>0</v>
+        <v>27017</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="1">
@@ -3933,7 +4633,7 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>0.0</v>
+        <v>-12235.3</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
@@ -3945,7 +4645,7 @@
       <c r="AC55" s="1">
         <v>0</v>
       </c>
-      <c r="AD55" s="2">
+      <c r="AD55">
         <v>0</v>
       </c>
       <c r="AE55"/>
@@ -3959,16 +4659,20 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>146781.81707619</v>
+        <v>13458.5</v>
       </c>
       <c r="F56" s="2"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="1"/>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
       <c r="J56" s="2"/>
       <c r="K56" s="1">
         <v>0</v>
@@ -3979,17 +4683,25 @@
       <c r="M56" s="1">
         <v>0</v>
       </c>
-      <c r="N56" s="1"/>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>0</v>
+        <v>24315.0</v>
       </c>
       <c r="Q56" s="2"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
+      <c r="R56" s="1">
+        <v>24315.0</v>
+      </c>
+      <c r="S56" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U56" s="6">
-        <v>0</v>
+        <v>24315</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="1">
@@ -3997,7 +4709,7 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>0.0</v>
+        <v>-13458.5</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
@@ -4009,7 +4721,7 @@
       <c r="AC56" s="1">
         <v>0</v>
       </c>
-      <c r="AD56" s="2">
+      <c r="AD56">
         <v>0</v>
       </c>
       <c r="AE56"/>
@@ -4023,16 +4735,20 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>161459.99878381</v>
+        <v>14804.9</v>
       </c>
       <c r="F57" s="14"/>
-      <c r="G57" s="13"/>
+      <c r="G57" s="13">
+        <v>0.0</v>
+      </c>
       <c r="H57" s="14"/>
-      <c r="I57" s="13"/>
+      <c r="I57" s="13">
+        <v>0</v>
+      </c>
       <c r="J57" s="14"/>
       <c r="K57" s="13">
         <v>0</v>
@@ -4043,17 +4759,25 @@
       <c r="M57" s="13">
         <v>0</v>
       </c>
-      <c r="N57" s="13"/>
+      <c r="N57" s="13">
+        <v>0</v>
+      </c>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>0</v>
+        <v>21884.0</v>
       </c>
       <c r="Q57" s="14"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
+      <c r="R57" s="13">
+        <v>21884.0</v>
+      </c>
+      <c r="S57" s="13">
+        <v>180000.0</v>
+      </c>
+      <c r="T57" s="13">
+        <v>180000.0</v>
+      </c>
       <c r="U57" s="13">
-        <v>0</v>
+        <v>21884</v>
       </c>
       <c r="V57" s="14"/>
       <c r="W57" s="13">
@@ -4061,7 +4785,7 @@
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>0.0</v>
+        <v>-14804.9</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
@@ -4073,10 +4797,11 @@
       <c r="AC57" s="13">
         <v>0</v>
       </c>
-      <c r="AD57" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE57"/>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
       <c r="AG57"/>
     </row>
     <row r="58" spans="1:33">
@@ -4087,16 +4812,20 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>177605.99866219</v>
+        <v>16285.5</v>
       </c>
       <c r="F58" s="2"/>
-      <c r="G58" s="1"/>
+      <c r="G58" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H58" s="2"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
       <c r="J58" s="2"/>
       <c r="K58" s="1">
         <v>0</v>
@@ -4107,17 +4836,25 @@
       <c r="M58" s="1">
         <v>0</v>
       </c>
-      <c r="N58" s="1"/>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>0</v>
+        <v>19696.0</v>
       </c>
       <c r="Q58" s="2"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
+      <c r="R58" s="1">
+        <v>19696.0</v>
+      </c>
+      <c r="S58" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U58" s="6">
-        <v>0</v>
+        <v>19696</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
@@ -4125,7 +4862,7 @@
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>0.0</v>
+        <v>-16285.5</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
@@ -4137,7 +4874,7 @@
       <c r="AC58" s="1">
         <v>0</v>
       </c>
-      <c r="AD58" s="2">
+      <c r="AD58">
         <v>0</v>
       </c>
       <c r="AE58"/>
@@ -4151,16 +4888,20 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>195366.59852841</v>
+        <v>17914.6</v>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H59" s="2"/>
-      <c r="I59" s="1"/>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
       <c r="J59" s="2"/>
       <c r="K59" s="1">
         <v>0</v>
@@ -4171,17 +4912,25 @@
       <c r="M59" s="1">
         <v>0</v>
       </c>
-      <c r="N59" s="1"/>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>0</v>
+        <v>17726.0</v>
       </c>
       <c r="Q59" s="2"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
+      <c r="R59" s="1">
+        <v>17726.0</v>
+      </c>
+      <c r="S59" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U59" s="6">
-        <v>0</v>
+        <v>17726</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
@@ -4189,7 +4938,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>0.0</v>
+        <v>-17914.6</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
@@ -4201,7 +4950,7 @@
       <c r="AC59" s="1">
         <v>0</v>
       </c>
-      <c r="AD59" s="2">
+      <c r="AD59">
         <v>0</v>
       </c>
       <c r="AE59"/>
@@ -4215,16 +4964,20 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>214903.25838125</v>
+        <v>19706.5</v>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H60" s="2"/>
-      <c r="I60" s="1"/>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
       <c r="J60" s="2"/>
       <c r="K60" s="1">
         <v>0</v>
@@ -4235,17 +4988,25 @@
       <c r="M60" s="1">
         <v>0</v>
       </c>
-      <c r="N60" s="1"/>
+      <c r="N60" s="1">
+        <v>0</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>0</v>
+        <v>15953.0</v>
       </c>
       <c r="Q60" s="2"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
+      <c r="R60" s="1">
+        <v>15953.0</v>
+      </c>
+      <c r="S60" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U60" s="6">
-        <v>0</v>
+        <v>15953</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
@@ -4253,7 +5014,7 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>0.0</v>
+        <v>-19706.5</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
@@ -4265,7 +5026,7 @@
       <c r="AC60" s="1">
         <v>0</v>
       </c>
-      <c r="AD60" s="2">
+      <c r="AD60">
         <v>0</v>
       </c>
       <c r="AE60"/>
@@ -4279,16 +5040,20 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>236393.58421938</v>
+        <v>21677.7</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H61" s="2"/>
-      <c r="I61" s="1"/>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
       <c r="J61" s="2"/>
       <c r="K61" s="1">
         <v>0</v>
@@ -4299,17 +5064,25 @@
       <c r="M61" s="1">
         <v>0</v>
       </c>
-      <c r="N61" s="1"/>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>0</v>
+        <v>14358.0</v>
       </c>
       <c r="Q61" s="2"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
+      <c r="R61" s="1">
+        <v>14358.0</v>
+      </c>
+      <c r="S61" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U61" s="6">
-        <v>0</v>
+        <v>14358</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
@@ -4317,7 +5090,7 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>0.0</v>
+        <v>-21677.7</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
@@ -4329,7 +5102,7 @@
       <c r="AC61" s="1">
         <v>0</v>
       </c>
-      <c r="AD61" s="2">
+      <c r="AD61">
         <v>0</v>
       </c>
       <c r="AE61"/>
@@ -4343,16 +5116,20 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>260032.94264132</v>
+        <v>23845.8</v>
       </c>
       <c r="F62" s="2"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H62" s="2"/>
-      <c r="I62" s="1"/>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
       <c r="J62" s="2"/>
       <c r="K62" s="1">
         <v>0</v>
@@ -4363,17 +5140,25 @@
       <c r="M62" s="1">
         <v>0</v>
       </c>
-      <c r="N62" s="1"/>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>0</v>
+        <v>12922.0</v>
       </c>
       <c r="Q62" s="2"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
+      <c r="R62" s="1">
+        <v>12922.0</v>
+      </c>
+      <c r="S62" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T62" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U62" s="6">
-        <v>0</v>
+        <v>12922</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="1">
@@ -4381,7 +5166,7 @@
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>0.0</v>
+        <v>-23845.8</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
@@ -4393,7 +5178,7 @@
       <c r="AC62" s="1">
         <v>0</v>
       </c>
-      <c r="AD62" s="2">
+      <c r="AD62">
         <v>0</v>
       </c>
       <c r="AE62"/>
@@ -4407,16 +5192,20 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>286036.23690545</v>
+        <v>26230.6</v>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H63" s="2"/>
-      <c r="I63" s="1"/>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
       <c r="J63" s="2"/>
       <c r="K63" s="1">
         <v>0</v>
@@ -4427,17 +5216,25 @@
       <c r="M63" s="1">
         <v>0</v>
       </c>
-      <c r="N63" s="1"/>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>0</v>
+        <v>11630.0</v>
       </c>
       <c r="Q63" s="2"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
+      <c r="R63" s="1">
+        <v>11630.0</v>
+      </c>
+      <c r="S63" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U63" s="6">
-        <v>0</v>
+        <v>11630</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="1">
@@ -4445,7 +5242,7 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>0.0</v>
+        <v>-26230.6</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
@@ -4457,7 +5254,7 @@
       <c r="AC63" s="1">
         <v>0</v>
       </c>
-      <c r="AD63" s="2">
+      <c r="AD63">
         <v>0</v>
       </c>
       <c r="AE63"/>
@@ -4471,16 +5268,20 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>314639.860596</v>
+        <v>28854.1</v>
       </c>
       <c r="F64" s="2"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H64" s="2"/>
-      <c r="I64" s="1"/>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
       <c r="J64" s="2"/>
       <c r="K64" s="1">
         <v>0</v>
@@ -4491,17 +5292,25 @@
       <c r="M64" s="1">
         <v>0</v>
       </c>
-      <c r="N64" s="1"/>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>0</v>
+        <v>10467.0</v>
       </c>
       <c r="Q64" s="2"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
+      <c r="R64" s="1">
+        <v>10467.0</v>
+      </c>
+      <c r="S64" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U64" s="6">
-        <v>0</v>
+        <v>10467</v>
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="1">
@@ -4509,7 +5318,7 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>0.0</v>
+        <v>-28854.1</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
@@ -4521,7 +5330,7 @@
       <c r="AC64" s="1">
         <v>0</v>
       </c>
-      <c r="AD64" s="2">
+      <c r="AD64">
         <v>0</v>
       </c>
       <c r="AE64"/>
@@ -4535,16 +5344,20 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>346103.8466556</v>
+        <v>31739.4</v>
       </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="1"/>
+      <c r="G65" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H65" s="2"/>
-      <c r="I65" s="1"/>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
       <c r="J65" s="2"/>
       <c r="K65" s="1">
         <v>0</v>
@@ -4555,17 +5368,25 @@
       <c r="M65" s="1">
         <v>0</v>
       </c>
-      <c r="N65" s="1"/>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>0</v>
+        <v>9420.0</v>
       </c>
       <c r="Q65" s="2"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
+      <c r="R65" s="1">
+        <v>9420.0</v>
+      </c>
+      <c r="S65" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T65" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U65" s="6">
-        <v>0</v>
+        <v>9420</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="1">
@@ -4573,7 +5394,7 @@
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>0.0</v>
+        <v>-31739.4</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
@@ -4585,7 +5406,7 @@
       <c r="AC65" s="1">
         <v>0</v>
       </c>
-      <c r="AD65" s="2">
+      <c r="AD65">
         <v>0</v>
       </c>
       <c r="AE65"/>
@@ -4599,16 +5420,20 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>380714.23132116</v>
+        <v>34912.9</v>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="1"/>
+      <c r="G66" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H66" s="2"/>
-      <c r="I66" s="1"/>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
       <c r="J66" s="2"/>
       <c r="K66" s="1">
         <v>0</v>
@@ -4619,17 +5444,25 @@
       <c r="M66" s="1">
         <v>0</v>
       </c>
-      <c r="N66" s="1"/>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>0</v>
+        <v>8478.0</v>
       </c>
       <c r="Q66" s="2"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
+      <c r="R66" s="1">
+        <v>8478.0</v>
+      </c>
+      <c r="S66" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U66" s="6">
-        <v>0</v>
+        <v>8478</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="1">
@@ -4637,7 +5470,7 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>0.0</v>
+        <v>-34912.9</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
@@ -4649,7 +5482,7 @@
       <c r="AC66" s="1">
         <v>0</v>
       </c>
-      <c r="AD66" s="2">
+      <c r="AD66">
         <v>0</v>
       </c>
       <c r="AE66"/>
@@ -4663,16 +5496,20 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>418785.65445328</v>
+        <v>38404.3</v>
       </c>
       <c r="F67" s="2"/>
-      <c r="G67" s="1"/>
+      <c r="G67" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H67" s="2"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
       <c r="J67" s="2"/>
       <c r="K67" s="1">
         <v>0</v>
@@ -4683,17 +5520,25 @@
       <c r="M67" s="1">
         <v>0</v>
       </c>
-      <c r="N67" s="1"/>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>0</v>
+        <v>7630.0</v>
       </c>
       <c r="Q67" s="2"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
+      <c r="R67" s="1">
+        <v>7630.0</v>
+      </c>
+      <c r="S67" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T67" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U67" s="6">
-        <v>0</v>
+        <v>7630</v>
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="1">
@@ -4701,7 +5546,7 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>0.0</v>
+        <v>-38404.3</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
@@ -4713,7 +5558,7 @@
       <c r="AC67" s="1">
         <v>0</v>
       </c>
-      <c r="AD67" s="2">
+      <c r="AD67">
         <v>0</v>
       </c>
       <c r="AE67"/>
@@ -4727,16 +5572,20 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>460664.21989861</v>
+        <v>42244.4</v>
       </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H68" s="2"/>
-      <c r="I68" s="1"/>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
       <c r="J68" s="2"/>
       <c r="K68" s="1">
         <v>0</v>
@@ -4747,17 +5596,25 @@
       <c r="M68" s="1">
         <v>0</v>
       </c>
-      <c r="N68" s="1"/>
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>0</v>
+        <v>6867.0</v>
       </c>
       <c r="Q68" s="2"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
+      <c r="R68" s="1">
+        <v>6867.0</v>
+      </c>
+      <c r="S68" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U68" s="6">
-        <v>0</v>
+        <v>6867</v>
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="1">
@@ -4765,7 +5622,7 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>0.0</v>
+        <v>-42244.4</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
@@ -4777,7 +5634,7 @@
       <c r="AC68" s="1">
         <v>0</v>
       </c>
-      <c r="AD68" s="2">
+      <c r="AD68">
         <v>0</v>
       </c>
       <c r="AE68"/>
@@ -4791,16 +5648,20 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>506730.64188847</v>
+        <v>46468.4</v>
       </c>
       <c r="F69" s="2"/>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H69" s="2"/>
-      <c r="I69" s="1"/>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
       <c r="J69" s="2"/>
       <c r="K69" s="1">
         <v>0</v>
@@ -4811,17 +5672,25 @@
       <c r="M69" s="1">
         <v>0</v>
       </c>
-      <c r="N69" s="1"/>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>0</v>
+        <v>6180.0</v>
       </c>
       <c r="Q69" s="2"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
+      <c r="R69" s="1">
+        <v>6180.0</v>
+      </c>
+      <c r="S69" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T69" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U69" s="6">
-        <v>0</v>
+        <v>6180</v>
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="1">
@@ -4829,7 +5698,7 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>0.0</v>
+        <v>-46468.4</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
@@ -4841,7 +5710,7 @@
       <c r="AC69" s="1">
         <v>0</v>
       </c>
-      <c r="AD69" s="2">
+      <c r="AD69">
         <v>0</v>
       </c>
       <c r="AE69"/>
@@ -4855,16 +5724,20 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>557403.70607732</v>
+        <v>51114.8</v>
       </c>
       <c r="F70" s="2"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H70" s="2"/>
-      <c r="I70" s="1"/>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
       <c r="J70" s="2"/>
       <c r="K70" s="1">
         <v>0</v>
@@ -4875,17 +5748,25 @@
       <c r="M70" s="1">
         <v>0</v>
       </c>
-      <c r="N70" s="1"/>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>0</v>
+        <v>5562.0</v>
       </c>
       <c r="Q70" s="2"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
+      <c r="R70" s="1">
+        <v>5562.0</v>
+      </c>
+      <c r="S70" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T70" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U70" s="6">
-        <v>0</v>
+        <v>5562</v>
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
@@ -4893,7 +5774,7 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>0.0</v>
+        <v>-51114.8</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
@@ -4905,7 +5786,7 @@
       <c r="AC70" s="1">
         <v>0</v>
       </c>
-      <c r="AD70" s="2">
+      <c r="AD70">
         <v>0</v>
       </c>
       <c r="AE70"/>
@@ -4919,16 +5800,20 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>613144.07668505</v>
+        <v>56226.5</v>
       </c>
       <c r="F71" s="2"/>
-      <c r="G71" s="1"/>
+      <c r="G71" s="1">
+        <v>0.0</v>
+      </c>
       <c r="H71" s="2"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
       <c r="J71" s="2"/>
       <c r="K71" s="1">
         <v>0</v>
@@ -4939,17 +5824,25 @@
       <c r="M71" s="1">
         <v>0</v>
       </c>
-      <c r="N71" s="1"/>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>0</v>
+        <v>5006.0</v>
       </c>
       <c r="Q71" s="2"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
+      <c r="R71" s="1">
+        <v>5006.0</v>
+      </c>
+      <c r="S71" s="1">
+        <v>180000.0</v>
+      </c>
+      <c r="T71" s="1">
+        <v>180000.0</v>
+      </c>
       <c r="U71" s="6">
-        <v>0</v>
+        <v>5006</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="1">
@@ -4957,7 +5850,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>0.0</v>
+        <v>-56226.5</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
@@ -4969,7 +5862,7 @@
       <c r="AC71" s="1">
         <v>0</v>
       </c>
-      <c r="AD71" s="2">
+      <c r="AD71">
         <v>0</v>
       </c>
       <c r="AE71"/>
@@ -4983,16 +5876,20 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>674458.48435356</v>
+        <v>61849.7</v>
       </c>
       <c r="F72" s="16"/>
-      <c r="G72" s="5"/>
+      <c r="G72" s="5">
+        <v>0.0</v>
+      </c>
       <c r="H72" s="16"/>
-      <c r="I72" s="5"/>
+      <c r="I72" s="5">
+        <v>0</v>
+      </c>
       <c r="J72" s="16"/>
       <c r="K72" s="5">
         <v>0</v>
@@ -5003,17 +5900,25 @@
       <c r="M72" s="5">
         <v>0</v>
       </c>
-      <c r="N72" s="5"/>
+      <c r="N72" s="5">
+        <v>0</v>
+      </c>
       <c r="O72" s="16"/>
       <c r="P72" s="5">
-        <v>0</v>
+        <v>4505.0</v>
       </c>
       <c r="Q72" s="16"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
+      <c r="R72" s="5">
+        <v>4505.0</v>
+      </c>
+      <c r="S72" s="5">
+        <v>180000.0</v>
+      </c>
+      <c r="T72" s="5">
+        <v>180000.0</v>
+      </c>
       <c r="U72" s="5">
-        <v>0</v>
+        <v>4505</v>
       </c>
       <c r="V72" s="16"/>
       <c r="W72" s="5">
@@ -5021,7 +5926,7 @@
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>0.0</v>
+        <v>-61849.7</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
@@ -5033,10 +5938,11 @@
       <c r="AC72" s="5">
         <v>0</v>
       </c>
-      <c r="AD72" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE72"/>
+      <c r="AD72" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
       <c r="AG72"/>
     </row>
     <row r="73" spans="1:33">
@@ -5068,7 +5974,6 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-      <c r="AD73" s="2"/>
     </row>
     <row r="74" spans="1:33">
       <c r="B74" s="1"/>
@@ -5099,7 +6004,6 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-      <c r="AD74" s="2"/>
     </row>
     <row r="75" spans="1:33">
       <c r="B75" s="1"/>
@@ -5130,7 +6034,6 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-      <c r="AD75" s="2"/>
     </row>
     <row r="76" spans="1:33">
       <c r="B76" s="1"/>
@@ -5161,7 +6064,6 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-      <c r="AD76" s="2"/>
     </row>
     <row r="77" spans="1:33">
       <c r="B77" s="1"/>
@@ -5192,7 +6094,6 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-      <c r="AD77" s="2"/>
     </row>
     <row r="78" spans="1:33">
       <c r="B78" s="1"/>
@@ -5223,7 +6124,6 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-      <c r="AD78" s="2"/>
     </row>
     <row r="79" spans="1:33">
       <c r="B79" s="1"/>
@@ -5254,7 +6154,6 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-      <c r="AD79" s="2"/>
     </row>
     <row r="80" spans="1:33">
       <c r="B80" s="1"/>
@@ -5285,7 +6184,6 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-      <c r="AD80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -5311,7 +6209,7 @@
   <dimension ref="A1:AG80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A72" sqref="A72:AD72"/>
+      <selection activeCell="A72" sqref="A72:AF72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5320,7 +6218,7 @@
     <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -5332,21 +6230,25 @@
     <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -5354,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -5366,7 +6268,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -5398,7 +6300,7 @@
       <c r="Z4" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5452,22 +6354,22 @@
         <v>28</v>
       </c>
       <c r="Q5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>19</v>
@@ -5479,28 +6381,28 @@
         <v>7</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AB5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AC5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" t="s">
         <v>39</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AG5" t="s">
         <v>40</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -5511,15 +6413,15 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -5530,11 +6432,11 @@
       <c r="N6" s="1"/>
       <c r="O6" s="2"/>
       <c r="P6" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -5563,12 +6465,12 @@
       <c r="AC6" s="1">
         <v>0</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6"/>
       <c r="AG6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -5579,15 +6481,15 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="1"/>
@@ -5598,11 +6500,11 @@
       <c r="N7" s="1"/>
       <c r="O7" s="2"/>
       <c r="P7" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -5631,12 +6533,12 @@
       <c r="AC7" s="1">
         <v>0</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7"/>
       <c r="AG7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -5647,15 +6549,15 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1"/>
@@ -5666,11 +6568,11 @@
       <c r="N8" s="1"/>
       <c r="O8" s="2"/>
       <c r="P8" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -5699,12 +6601,12 @@
       <c r="AC8" s="1">
         <v>0</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8"/>
       <c r="AG8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -5715,15 +6617,15 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
@@ -5734,11 +6636,11 @@
       <c r="N9" s="1"/>
       <c r="O9" s="2"/>
       <c r="P9" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
@@ -5767,12 +6669,12 @@
       <c r="AC9" s="1">
         <v>0</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9"/>
       <c r="AG9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -5783,15 +6685,15 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
@@ -5802,11 +6704,11 @@
       <c r="N10" s="1"/>
       <c r="O10" s="2"/>
       <c r="P10" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
@@ -5835,12 +6737,12 @@
       <c r="AC10" s="1">
         <v>0</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10"/>
       <c r="AG10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -5851,15 +6753,15 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
@@ -5870,11 +6772,11 @@
       <c r="N11" s="1"/>
       <c r="O11" s="2"/>
       <c r="P11" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -5903,12 +6805,12 @@
       <c r="AC11" s="1">
         <v>0</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11"/>
       <c r="AG11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -5919,15 +6821,15 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="1"/>
@@ -5938,11 +6840,11 @@
       <c r="N12" s="1"/>
       <c r="O12" s="2"/>
       <c r="P12" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
@@ -5971,12 +6873,12 @@
       <c r="AC12" s="1">
         <v>0</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12"/>
       <c r="AG12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -5987,15 +6889,15 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1"/>
@@ -6006,11 +6908,11 @@
       <c r="N13" s="1"/>
       <c r="O13" s="2"/>
       <c r="P13" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
@@ -6039,12 +6941,12 @@
       <c r="AC13" s="1">
         <v>0</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13"/>
       <c r="AG13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -6055,15 +6957,15 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="1"/>
@@ -6074,11 +6976,11 @@
       <c r="N14" s="1"/>
       <c r="O14" s="2"/>
       <c r="P14" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S14" s="1">
         <v>0</v>
@@ -6107,12 +7009,12 @@
       <c r="AC14" s="1">
         <v>0</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14"/>
       <c r="AG14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -6123,15 +7025,15 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
@@ -6142,11 +7044,11 @@
       <c r="N15" s="1"/>
       <c r="O15" s="2"/>
       <c r="P15" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
@@ -6175,12 +7077,12 @@
       <c r="AC15" s="1">
         <v>0</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15"/>
       <c r="AG15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -6191,15 +7093,15 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
@@ -6210,11 +7112,11 @@
       <c r="N16" s="1"/>
       <c r="O16" s="2"/>
       <c r="P16" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S16" s="1">
         <v>0</v>
@@ -6243,12 +7145,12 @@
       <c r="AC16" s="1">
         <v>0</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16"/>
       <c r="AG16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -6259,15 +7161,15 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
@@ -6278,11 +7180,11 @@
       <c r="N17" s="1"/>
       <c r="O17" s="2"/>
       <c r="P17" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S17" s="1">
         <v>0</v>
@@ -6311,12 +7213,12 @@
       <c r="AC17" s="1">
         <v>0</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17"/>
       <c r="AG17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -6327,15 +7229,15 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="1"/>
@@ -6346,11 +7248,11 @@
       <c r="N18" s="1"/>
       <c r="O18" s="2"/>
       <c r="P18" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S18" s="1">
         <v>0</v>
@@ -6379,12 +7281,12 @@
       <c r="AC18" s="1">
         <v>0</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18"/>
       <c r="AG18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -6395,15 +7297,15 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="1"/>
@@ -6414,11 +7316,11 @@
       <c r="N19" s="1"/>
       <c r="O19" s="2"/>
       <c r="P19" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S19" s="1">
         <v>0</v>
@@ -6447,12 +7349,12 @@
       <c r="AC19" s="1">
         <v>0</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19"/>
       <c r="AG19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -6463,15 +7365,15 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="1"/>
@@ -6482,11 +7384,11 @@
       <c r="N20" s="1"/>
       <c r="O20" s="2"/>
       <c r="P20" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S20" s="1">
         <v>0</v>
@@ -6515,12 +7417,12 @@
       <c r="AC20" s="1">
         <v>0</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20"/>
       <c r="AG20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -6531,15 +7433,15 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
@@ -6550,11 +7452,11 @@
       <c r="N21" s="1"/>
       <c r="O21" s="2"/>
       <c r="P21" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S21" s="1">
         <v>0</v>
@@ -6583,12 +7485,12 @@
       <c r="AC21" s="1">
         <v>0</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21"/>
       <c r="AG21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -6599,15 +7501,15 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
@@ -6618,11 +7520,11 @@
       <c r="N22" s="1"/>
       <c r="O22" s="2"/>
       <c r="P22" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
@@ -6651,12 +7553,12 @@
       <c r="AC22" s="1">
         <v>0</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22"/>
       <c r="AG22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -6667,15 +7569,15 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="1"/>
@@ -6686,11 +7588,11 @@
       <c r="N23" s="1"/>
       <c r="O23" s="2"/>
       <c r="P23" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -6719,12 +7621,12 @@
       <c r="AC23" s="1">
         <v>0</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23"/>
       <c r="AG23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -6735,15 +7637,15 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="1"/>
@@ -6754,11 +7656,11 @@
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S24" s="1">
         <v>0</v>
@@ -6787,12 +7689,12 @@
       <c r="AC24" s="1">
         <v>0</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD24">
         <v>0</v>
       </c>
       <c r="AE24"/>
       <c r="AG24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -6803,15 +7705,15 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="1"/>
@@ -6822,11 +7724,11 @@
       <c r="N25" s="1"/>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S25" s="1">
         <v>0</v>
@@ -6855,12 +7757,12 @@
       <c r="AC25" s="1">
         <v>0</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25"/>
       <c r="AG25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -6871,15 +7773,15 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="1"/>
@@ -6890,11 +7792,11 @@
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
       <c r="P26" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S26" s="1">
         <v>0</v>
@@ -6923,12 +7825,12 @@
       <c r="AC26" s="1">
         <v>0</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD26">
         <v>0</v>
       </c>
       <c r="AE26"/>
       <c r="AG26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -6939,15 +7841,15 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="1"/>
@@ -6958,11 +7860,11 @@
       <c r="N27" s="1"/>
       <c r="O27" s="2"/>
       <c r="P27" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S27" s="1">
         <v>0</v>
@@ -6991,12 +7893,12 @@
       <c r="AC27" s="1">
         <v>0</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AD27">
         <v>0</v>
       </c>
       <c r="AE27"/>
       <c r="AG27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -7007,15 +7909,15 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="1"/>
@@ -7026,11 +7928,11 @@
       <c r="N28" s="1"/>
       <c r="O28" s="2"/>
       <c r="P28" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S28" s="1">
         <v>0</v>
@@ -7059,12 +7961,12 @@
       <c r="AC28" s="1">
         <v>0</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28"/>
       <c r="AG28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -7075,15 +7977,15 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="1"/>
@@ -7094,11 +7996,11 @@
       <c r="N29" s="1"/>
       <c r="O29" s="2"/>
       <c r="P29" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S29" s="1">
         <v>0</v>
@@ -7127,12 +8029,12 @@
       <c r="AC29" s="1">
         <v>0</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29"/>
       <c r="AG29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -7143,15 +8045,15 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
@@ -7162,11 +8064,11 @@
       <c r="N30" s="1"/>
       <c r="O30" s="2"/>
       <c r="P30" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -7195,12 +8097,12 @@
       <c r="AC30" s="1">
         <v>0</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AD30">
         <v>0</v>
       </c>
       <c r="AE30"/>
       <c r="AG30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -7211,15 +8113,15 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
@@ -7230,11 +8132,11 @@
       <c r="N31" s="1"/>
       <c r="O31" s="2"/>
       <c r="P31" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S31" s="1">
         <v>0</v>
@@ -7263,12 +8165,12 @@
       <c r="AC31" s="1">
         <v>0</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AD31">
         <v>0</v>
       </c>
       <c r="AE31"/>
       <c r="AG31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -7279,15 +8181,15 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="1"/>
@@ -7298,11 +8200,11 @@
       <c r="N32" s="1"/>
       <c r="O32" s="2"/>
       <c r="P32" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S32" s="1">
         <v>0</v>
@@ -7331,12 +8233,12 @@
       <c r="AC32" s="1">
         <v>0</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AD32">
         <v>0</v>
       </c>
       <c r="AE32"/>
       <c r="AG32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -7347,15 +8249,15 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="1"/>
@@ -7366,11 +8268,11 @@
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
       <c r="P33" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S33" s="1">
         <v>0</v>
@@ -7399,12 +8301,12 @@
       <c r="AC33" s="1">
         <v>0</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AD33">
         <v>0</v>
       </c>
       <c r="AE33"/>
       <c r="AG33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -7415,15 +8317,15 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="1"/>
@@ -7434,11 +8336,11 @@
       <c r="N34" s="1"/>
       <c r="O34" s="2"/>
       <c r="P34" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S34" s="1">
         <v>0</v>
@@ -7467,12 +8369,12 @@
       <c r="AC34" s="1">
         <v>0</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AD34">
         <v>0</v>
       </c>
       <c r="AE34"/>
       <c r="AG34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -7483,15 +8385,15 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="1"/>
@@ -7502,11 +8404,11 @@
       <c r="N35" s="1"/>
       <c r="O35" s="2"/>
       <c r="P35" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S35" s="1">
         <v>0</v>
@@ -7535,12 +8437,12 @@
       <c r="AC35" s="1">
         <v>0</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AD35">
         <v>0</v>
       </c>
       <c r="AE35"/>
       <c r="AG35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -7551,15 +8453,15 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="1"/>
@@ -7570,11 +8472,11 @@
       <c r="N36" s="1"/>
       <c r="O36" s="2"/>
       <c r="P36" s="6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S36" s="1">
         <v>0</v>
@@ -7603,12 +8505,12 @@
       <c r="AC36" s="1">
         <v>0</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AD36">
         <v>0</v>
       </c>
       <c r="AE36"/>
       <c r="AG36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -7619,17 +8521,17 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>24000</v>
+        <v>2200.0</v>
       </c>
       <c r="F37" s="2">
         <v>0.1</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="1"/>
@@ -7640,30 +8542,34 @@
       <c r="N37" s="1"/>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="Q37" s="2">
         <v>0.1</v>
       </c>
       <c r="R37" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="S37" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U37" s="6">
-        <v>0</v>
-      </c>
-      <c r="V37" s="2"/>
+        <v>180000</v>
+      </c>
+      <c r="V37" s="2">
+        <v>1</v>
+      </c>
       <c r="W37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>1800.0</v>
+      </c>
+      <c r="X37" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y37" s="1">
-        <v>0.0</v>
+        <v>-2200.0</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
@@ -7675,12 +8581,12 @@
       <c r="AC37" s="1">
         <v>0</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AD37">
         <v>0</v>
       </c>
       <c r="AE37"/>
       <c r="AG37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -7691,17 +8597,17 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>26400</v>
+        <v>2420.0</v>
       </c>
       <c r="F38" s="2">
         <v>0.1</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="1"/>
@@ -7712,30 +8618,34 @@
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>0</v>
+        <v>162000.0</v>
       </c>
       <c r="Q38" s="2">
         <v>0.1</v>
       </c>
       <c r="R38" s="1">
-        <v>0</v>
+        <v>162000.0</v>
       </c>
       <c r="S38" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>0</v>
-      </c>
-      <c r="V38" s="2"/>
+        <v>162000</v>
+      </c>
+      <c r="V38" s="2">
+        <v>1</v>
+      </c>
       <c r="W38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>1620.0</v>
+      </c>
+      <c r="X38" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y38" s="1">
-        <v>0.0</v>
+        <v>-2420.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
@@ -7747,12 +8657,12 @@
       <c r="AC38" s="1">
         <v>0</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AD38">
         <v>0</v>
       </c>
       <c r="AE38"/>
       <c r="AG38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -7763,17 +8673,17 @@
         <v>49</v>
       </c>
       <c r="C39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>29040</v>
+        <v>2662.0</v>
       </c>
       <c r="F39" s="9">
         <v>0.1</v>
       </c>
       <c r="G39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="8"/>
@@ -7784,30 +8694,34 @@
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
-        <v>0</v>
+        <v>145800.0</v>
       </c>
       <c r="Q39" s="9">
         <v>0.1</v>
       </c>
       <c r="R39" s="8">
-        <v>0</v>
+        <v>145800.0</v>
       </c>
       <c r="S39" s="8">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T39" s="8">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U39" s="8">
-        <v>0</v>
-      </c>
-      <c r="V39" s="9"/>
+        <v>145800</v>
+      </c>
+      <c r="V39" s="9">
+        <v>1</v>
+      </c>
       <c r="W39" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="X39" s="9"/>
+        <v>1458.0</v>
+      </c>
+      <c r="X39" s="9">
+        <v>0.01</v>
+      </c>
       <c r="Y39" s="8">
-        <v>0.0</v>
+        <v>-2662.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
@@ -7819,12 +8733,13 @@
       <c r="AC39" s="8">
         <v>0</v>
       </c>
-      <c r="AD39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE39"/>
+      <c r="AD39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
       <c r="AG39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -7835,17 +8750,17 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>31944</v>
+        <v>2928.2</v>
       </c>
       <c r="F40" s="12">
         <v>0.1</v>
       </c>
       <c r="G40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="11"/>
@@ -7856,30 +8771,34 @@
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>0</v>
+        <v>131220.0</v>
       </c>
       <c r="Q40" s="12">
         <v>0.1</v>
       </c>
       <c r="R40" s="11">
-        <v>0</v>
+        <v>131220.0</v>
       </c>
       <c r="S40" s="11">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U40" s="11">
-        <v>0</v>
-      </c>
-      <c r="V40" s="12"/>
+        <v>131220</v>
+      </c>
+      <c r="V40" s="12">
+        <v>1</v>
+      </c>
       <c r="W40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="X40" s="12"/>
+        <v>1312.2</v>
+      </c>
+      <c r="X40" s="12">
+        <v>0.01</v>
+      </c>
       <c r="Y40" s="11">
-        <v>0.0</v>
+        <v>-2928.2</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
@@ -7891,10 +8810,11 @@
       <c r="AC40" s="11">
         <v>0</v>
       </c>
-      <c r="AD40" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE40"/>
+      <c r="AD40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
       <c r="AG40" t="s">
         <v>47</v>
       </c>
@@ -7907,17 +8827,17 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>35138.4</v>
+        <v>3220.8</v>
       </c>
       <c r="F41" s="2">
         <v>0.1</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
@@ -7928,30 +8848,34 @@
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>0</v>
+        <v>118098.0</v>
       </c>
       <c r="Q41" s="2">
         <v>0.1</v>
       </c>
       <c r="R41" s="1">
-        <v>0</v>
+        <v>118098.0</v>
       </c>
       <c r="S41" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U41" s="6">
-        <v>0</v>
-      </c>
-      <c r="V41" s="2"/>
+        <v>118098</v>
+      </c>
+      <c r="V41" s="2">
+        <v>1</v>
+      </c>
       <c r="W41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>1180.98</v>
+      </c>
+      <c r="X41" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y41" s="1">
-        <v>0.0</v>
+        <v>-3220.8</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
@@ -7963,12 +8887,12 @@
       <c r="AC41" s="1">
         <v>0</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AD41">
         <v>0</v>
       </c>
       <c r="AE41"/>
       <c r="AG41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -7979,17 +8903,17 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>38652.24</v>
+        <v>3543.1</v>
       </c>
       <c r="F42" s="2">
         <v>0.1</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
@@ -8000,30 +8924,34 @@
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>0</v>
+        <v>106288.0</v>
       </c>
       <c r="Q42" s="2">
         <v>0.1</v>
       </c>
       <c r="R42" s="1">
-        <v>0</v>
+        <v>106288.0</v>
       </c>
       <c r="S42" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U42" s="6">
-        <v>0</v>
-      </c>
-      <c r="V42" s="2"/>
+        <v>106288</v>
+      </c>
+      <c r="V42" s="2">
+        <v>1</v>
+      </c>
       <c r="W42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>1062.88</v>
+      </c>
+      <c r="X42" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y42" s="1">
-        <v>0.0</v>
+        <v>-3543.1</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
@@ -8035,12 +8963,12 @@
       <c r="AC42" s="1">
         <v>0</v>
       </c>
-      <c r="AD42" s="2">
+      <c r="AD42">
         <v>0</v>
       </c>
       <c r="AE42"/>
       <c r="AG42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:33">
@@ -8051,17 +8979,17 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>42517.464</v>
+        <v>3897.3</v>
       </c>
       <c r="F43" s="2">
         <v>0.1</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
@@ -8072,30 +9000,34 @@
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>0</v>
+        <v>95659.0</v>
       </c>
       <c r="Q43" s="2">
         <v>0.1</v>
       </c>
       <c r="R43" s="1">
-        <v>0</v>
+        <v>95659.0</v>
       </c>
       <c r="S43" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U43" s="6">
-        <v>0</v>
-      </c>
-      <c r="V43" s="2"/>
+        <v>95659</v>
+      </c>
+      <c r="V43" s="2">
+        <v>1</v>
+      </c>
       <c r="W43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>956.59</v>
+      </c>
+      <c r="X43" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y43" s="1">
-        <v>0.0</v>
+        <v>-3897.3</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
@@ -8107,12 +9039,12 @@
       <c r="AC43" s="1">
         <v>0</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AD43">
         <v>0</v>
       </c>
       <c r="AE43"/>
       <c r="AG43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -8123,17 +9055,17 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>46769.2104</v>
+        <v>4286.7</v>
       </c>
       <c r="F44" s="2">
         <v>0.1</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
@@ -8144,30 +9076,34 @@
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>0</v>
+        <v>86093.0</v>
       </c>
       <c r="Q44" s="2">
         <v>0.1</v>
       </c>
       <c r="R44" s="1">
-        <v>0</v>
+        <v>86093.0</v>
       </c>
       <c r="S44" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U44" s="6">
-        <v>0</v>
-      </c>
-      <c r="V44" s="2"/>
+        <v>86093</v>
+      </c>
+      <c r="V44" s="2">
+        <v>1</v>
+      </c>
       <c r="W44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>860.93</v>
+      </c>
+      <c r="X44" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y44" s="1">
-        <v>0.0</v>
+        <v>-4286.7</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
@@ -8179,12 +9115,12 @@
       <c r="AC44" s="1">
         <v>0</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AD44">
         <v>0</v>
       </c>
       <c r="AE44"/>
       <c r="AG44" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:33">
@@ -8195,17 +9131,17 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>51446.13144</v>
+        <v>4715.7</v>
       </c>
       <c r="F45" s="2">
         <v>0.1</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
@@ -8216,30 +9152,34 @@
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>0</v>
+        <v>77484.0</v>
       </c>
       <c r="Q45" s="2">
         <v>0.1</v>
       </c>
       <c r="R45" s="1">
-        <v>0</v>
+        <v>77484.0</v>
       </c>
       <c r="S45" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U45" s="6">
-        <v>0</v>
-      </c>
-      <c r="V45" s="2"/>
+        <v>77484</v>
+      </c>
+      <c r="V45" s="2">
+        <v>1</v>
+      </c>
       <c r="W45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>774.84</v>
+      </c>
+      <c r="X45" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y45" s="1">
-        <v>0.0</v>
+        <v>-4715.7</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
@@ -8251,12 +9191,12 @@
       <c r="AC45" s="1">
         <v>0</v>
       </c>
-      <c r="AD45" s="2">
+      <c r="AD45">
         <v>0</v>
       </c>
       <c r="AE45"/>
       <c r="AG45" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:33">
@@ -8267,17 +9207,17 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>56590.744584</v>
+        <v>5187.6</v>
       </c>
       <c r="F46" s="2">
         <v>0.1</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
@@ -8288,30 +9228,34 @@
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>0</v>
+        <v>69736.0</v>
       </c>
       <c r="Q46" s="2">
         <v>0.1</v>
       </c>
       <c r="R46" s="1">
-        <v>0</v>
+        <v>69736.0</v>
       </c>
       <c r="S46" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U46" s="6">
-        <v>0</v>
-      </c>
-      <c r="V46" s="2"/>
+        <v>69736</v>
+      </c>
+      <c r="V46" s="2">
+        <v>1</v>
+      </c>
       <c r="W46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>697.36</v>
+      </c>
+      <c r="X46" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y46" s="1">
-        <v>0.0</v>
+        <v>-5187.6</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
@@ -8323,12 +9267,12 @@
       <c r="AC46" s="1">
         <v>0</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AD46">
         <v>0</v>
       </c>
       <c r="AE46"/>
       <c r="AG46" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -8339,17 +9283,17 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>62249.8190424</v>
+        <v>5706.8</v>
       </c>
       <c r="F47" s="2">
         <v>0.1</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
@@ -8360,30 +9304,34 @@
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>0</v>
+        <v>62762.0</v>
       </c>
       <c r="Q47" s="2">
         <v>0.1</v>
       </c>
       <c r="R47" s="1">
-        <v>0</v>
+        <v>62762.0</v>
       </c>
       <c r="S47" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U47" s="6">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2"/>
+        <v>62762</v>
+      </c>
+      <c r="V47" s="2">
+        <v>1</v>
+      </c>
       <c r="W47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>627.62</v>
+      </c>
+      <c r="X47" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y47" s="1">
-        <v>0.0</v>
+        <v>-5706.8</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
@@ -8395,12 +9343,12 @@
       <c r="AC47" s="1">
         <v>0</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AD47">
         <v>0</v>
       </c>
       <c r="AE47"/>
       <c r="AG47" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:33">
@@ -8411,17 +9359,17 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>68474.80094664</v>
+        <v>6277.7</v>
       </c>
       <c r="F48" s="2">
         <v>0.1</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
@@ -8432,30 +9380,34 @@
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>0</v>
+        <v>56486.0</v>
       </c>
       <c r="Q48" s="2">
         <v>0.1</v>
       </c>
       <c r="R48" s="1">
-        <v>0</v>
+        <v>56486.0</v>
       </c>
       <c r="S48" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U48" s="6">
-        <v>0</v>
-      </c>
-      <c r="V48" s="2"/>
+        <v>56486</v>
+      </c>
+      <c r="V48" s="2">
+        <v>1</v>
+      </c>
       <c r="W48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>564.86</v>
+      </c>
+      <c r="X48" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y48" s="1">
-        <v>0.0</v>
+        <v>-6277.7</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
@@ -8467,12 +9419,12 @@
       <c r="AC48" s="1">
         <v>0</v>
       </c>
-      <c r="AD48" s="2">
+      <c r="AD48">
         <v>0</v>
       </c>
       <c r="AE48"/>
       <c r="AG48" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:33">
@@ -8483,17 +9435,17 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>75322.281041304</v>
+        <v>6905.8</v>
       </c>
       <c r="F49" s="2">
         <v>0.1</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
@@ -8504,30 +9456,34 @@
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>0</v>
+        <v>50837.0</v>
       </c>
       <c r="Q49" s="2">
         <v>0.1</v>
       </c>
       <c r="R49" s="1">
-        <v>0</v>
+        <v>50837.0</v>
       </c>
       <c r="S49" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U49" s="6">
-        <v>0</v>
-      </c>
-      <c r="V49" s="2"/>
+        <v>50837</v>
+      </c>
+      <c r="V49" s="2">
+        <v>1</v>
+      </c>
       <c r="W49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>508.37</v>
+      </c>
+      <c r="X49" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y49" s="1">
-        <v>0.0</v>
+        <v>-6905.8</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
@@ -8539,12 +9495,12 @@
       <c r="AC49" s="1">
         <v>0</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AD49">
         <v>0</v>
       </c>
       <c r="AE49"/>
       <c r="AG49" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -8555,17 +9511,17 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>82854.509145434</v>
+        <v>7596.6</v>
       </c>
       <c r="F50" s="2">
         <v>0.1</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
@@ -8576,30 +9532,34 @@
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>0</v>
+        <v>45753.0</v>
       </c>
       <c r="Q50" s="2">
         <v>0.1</v>
       </c>
       <c r="R50" s="1">
-        <v>0</v>
+        <v>45753.0</v>
       </c>
       <c r="S50" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U50" s="6">
-        <v>0</v>
-      </c>
-      <c r="V50" s="2"/>
+        <v>45753</v>
+      </c>
+      <c r="V50" s="2">
+        <v>1</v>
+      </c>
       <c r="W50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X50" s="2"/>
+        <v>457.53</v>
+      </c>
+      <c r="X50" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y50" s="1">
-        <v>0.0</v>
+        <v>-7596.6</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
@@ -8611,12 +9571,12 @@
       <c r="AC50" s="1">
         <v>0</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AD50">
         <v>0</v>
       </c>
       <c r="AE50"/>
       <c r="AG50" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:33">
@@ -8627,17 +9587,17 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>91139.960059977</v>
+        <v>8356.7</v>
       </c>
       <c r="F51" s="2">
         <v>0.1</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
@@ -8648,30 +9608,34 @@
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>0</v>
+        <v>41178.0</v>
       </c>
       <c r="Q51" s="2">
         <v>0.1</v>
       </c>
       <c r="R51" s="1">
-        <v>0</v>
+        <v>41178.0</v>
       </c>
       <c r="S51" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U51" s="6">
-        <v>0</v>
-      </c>
-      <c r="V51" s="2"/>
+        <v>41178</v>
+      </c>
+      <c r="V51" s="2">
+        <v>1</v>
+      </c>
       <c r="W51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X51" s="2"/>
+        <v>411.78</v>
+      </c>
+      <c r="X51" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y51" s="1">
-        <v>0.0</v>
+        <v>-8356.7</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
@@ -8683,12 +9647,12 @@
       <c r="AC51" s="1">
         <v>0</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AD51">
         <v>0</v>
       </c>
       <c r="AE51"/>
       <c r="AG51" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -8699,17 +9663,17 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>100253.95606597</v>
+        <v>9192.7</v>
       </c>
       <c r="F52" s="2">
         <v>0.1</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="1"/>
@@ -8720,30 +9684,34 @@
       <c r="N52" s="1"/>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>0</v>
+        <v>37060.0</v>
       </c>
       <c r="Q52" s="2">
         <v>0.1</v>
       </c>
       <c r="R52" s="1">
-        <v>0</v>
+        <v>37060.0</v>
       </c>
       <c r="S52" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U52" s="6">
-        <v>0</v>
-      </c>
-      <c r="V52" s="2"/>
+        <v>37060</v>
+      </c>
+      <c r="V52" s="2">
+        <v>1</v>
+      </c>
       <c r="W52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X52" s="2"/>
+        <v>370.6</v>
+      </c>
+      <c r="X52" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y52" s="1">
-        <v>0.0</v>
+        <v>-9192.7</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
@@ -8755,12 +9723,12 @@
       <c r="AC52" s="1">
         <v>0</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AD52">
         <v>0</v>
       </c>
       <c r="AE52"/>
       <c r="AG52" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:33">
@@ -8771,17 +9739,17 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>110279.35167257</v>
+        <v>10112.3</v>
       </c>
       <c r="F53" s="14">
         <v>0.1</v>
       </c>
       <c r="G53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="13"/>
@@ -8792,30 +9760,34 @@
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>0</v>
+        <v>33354.0</v>
       </c>
       <c r="Q53" s="14">
         <v>0.1</v>
       </c>
       <c r="R53" s="13">
-        <v>0</v>
+        <v>33354.0</v>
       </c>
       <c r="S53" s="13">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U53" s="13">
-        <v>0</v>
-      </c>
-      <c r="V53" s="14"/>
+        <v>33354</v>
+      </c>
+      <c r="V53" s="14">
+        <v>1</v>
+      </c>
       <c r="W53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="X53" s="14"/>
+        <v>333.54</v>
+      </c>
+      <c r="X53" s="14">
+        <v>0.01</v>
+      </c>
       <c r="Y53" s="13">
-        <v>0.0</v>
+        <v>-10112.3</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
@@ -8827,12 +9799,13 @@
       <c r="AC53" s="13">
         <v>0</v>
       </c>
-      <c r="AD53" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE53"/>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
       <c r="AG53" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:33">
@@ -8843,17 +9816,17 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>121307.28683983</v>
+        <v>11123.2</v>
       </c>
       <c r="F54" s="2">
         <v>0.1</v>
       </c>
       <c r="G54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="1"/>
@@ -8864,30 +9837,34 @@
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>0</v>
+        <v>30019.0</v>
       </c>
       <c r="Q54" s="2">
         <v>0.1</v>
       </c>
       <c r="R54" s="1">
-        <v>0</v>
+        <v>30019.0</v>
       </c>
       <c r="S54" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U54" s="6">
-        <v>0</v>
-      </c>
-      <c r="V54" s="2"/>
+        <v>30019</v>
+      </c>
+      <c r="V54" s="2">
+        <v>1</v>
+      </c>
       <c r="W54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>300.19</v>
+      </c>
+      <c r="X54" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y54" s="1">
-        <v>0.0</v>
+        <v>-11123.2</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
@@ -8899,12 +9876,12 @@
       <c r="AC54" s="1">
         <v>0</v>
       </c>
-      <c r="AD54" s="2">
+      <c r="AD54">
         <v>0</v>
       </c>
       <c r="AE54"/>
       <c r="AG54" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:33">
@@ -8915,17 +9892,17 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>133438.01552381</v>
+        <v>12235.3</v>
       </c>
       <c r="F55" s="2">
         <v>0.1</v>
       </c>
       <c r="G55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="1"/>
@@ -8936,30 +9913,34 @@
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>0</v>
+        <v>27017.0</v>
       </c>
       <c r="Q55" s="2">
         <v>0.1</v>
       </c>
       <c r="R55" s="1">
-        <v>0</v>
+        <v>27017.0</v>
       </c>
       <c r="S55" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U55" s="6">
-        <v>0</v>
-      </c>
-      <c r="V55" s="2"/>
+        <v>27017</v>
+      </c>
+      <c r="V55" s="2">
+        <v>1</v>
+      </c>
       <c r="W55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X55" s="2"/>
+        <v>270.17</v>
+      </c>
+      <c r="X55" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y55" s="1">
-        <v>0.0</v>
+        <v>-12235.3</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
@@ -8971,12 +9952,12 @@
       <c r="AC55" s="1">
         <v>0</v>
       </c>
-      <c r="AD55" s="2">
+      <c r="AD55">
         <v>0</v>
       </c>
       <c r="AE55"/>
       <c r="AG55" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:33">
@@ -8987,17 +9968,17 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>146781.81707619</v>
+        <v>13458.5</v>
       </c>
       <c r="F56" s="2">
         <v>0.1</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1"/>
@@ -9008,30 +9989,34 @@
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>0</v>
+        <v>24315.0</v>
       </c>
       <c r="Q56" s="2">
         <v>0.1</v>
       </c>
       <c r="R56" s="1">
-        <v>0</v>
+        <v>24315.0</v>
       </c>
       <c r="S56" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>0</v>
-      </c>
-      <c r="V56" s="2"/>
+        <v>24315</v>
+      </c>
+      <c r="V56" s="2">
+        <v>1</v>
+      </c>
       <c r="W56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>243.15</v>
+      </c>
+      <c r="X56" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y56" s="1">
-        <v>0.0</v>
+        <v>-13458.5</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
@@ -9043,12 +10028,12 @@
       <c r="AC56" s="1">
         <v>0</v>
       </c>
-      <c r="AD56" s="2">
+      <c r="AD56">
         <v>0</v>
       </c>
       <c r="AE56"/>
       <c r="AG56" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:33">
@@ -9059,17 +10044,17 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>161459.99878381</v>
+        <v>14804.9</v>
       </c>
       <c r="F57" s="14">
         <v>0.1</v>
       </c>
       <c r="G57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="13"/>
@@ -9080,30 +10065,34 @@
       <c r="N57" s="13"/>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>0</v>
+        <v>21884.0</v>
       </c>
       <c r="Q57" s="14">
         <v>0.1</v>
       </c>
       <c r="R57" s="13">
-        <v>0</v>
+        <v>21884.0</v>
       </c>
       <c r="S57" s="13">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U57" s="13">
-        <v>0</v>
-      </c>
-      <c r="V57" s="14"/>
+        <v>21884</v>
+      </c>
+      <c r="V57" s="14">
+        <v>1</v>
+      </c>
       <c r="W57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="X57" s="14"/>
+        <v>218.84</v>
+      </c>
+      <c r="X57" s="14">
+        <v>0.01</v>
+      </c>
       <c r="Y57" s="13">
-        <v>0.0</v>
+        <v>-14804.9</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
@@ -9115,12 +10104,13 @@
       <c r="AC57" s="13">
         <v>0</v>
       </c>
-      <c r="AD57" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE57"/>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
       <c r="AG57" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:33">
@@ -9131,17 +10121,17 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>177605.99866219</v>
+        <v>16285.5</v>
       </c>
       <c r="F58" s="2">
         <v>0.1</v>
       </c>
       <c r="G58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="1"/>
@@ -9152,30 +10142,34 @@
       <c r="N58" s="1"/>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>0</v>
+        <v>19696.0</v>
       </c>
       <c r="Q58" s="2">
         <v>0.1</v>
       </c>
       <c r="R58" s="1">
-        <v>0</v>
+        <v>19696.0</v>
       </c>
       <c r="S58" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U58" s="6">
-        <v>0</v>
-      </c>
-      <c r="V58" s="2"/>
+        <v>19696</v>
+      </c>
+      <c r="V58" s="2">
+        <v>1</v>
+      </c>
       <c r="W58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>196.96</v>
+      </c>
+      <c r="X58" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y58" s="1">
-        <v>0.0</v>
+        <v>-16285.5</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
@@ -9187,12 +10181,12 @@
       <c r="AC58" s="1">
         <v>0</v>
       </c>
-      <c r="AD58" s="2">
+      <c r="AD58">
         <v>0</v>
       </c>
       <c r="AE58"/>
       <c r="AG58" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -9203,17 +10197,17 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>195366.59852841</v>
+        <v>17914.6</v>
       </c>
       <c r="F59" s="2">
         <v>0.1</v>
       </c>
       <c r="G59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="1"/>
@@ -9224,30 +10218,34 @@
       <c r="N59" s="1"/>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>0</v>
+        <v>17726.0</v>
       </c>
       <c r="Q59" s="2">
         <v>0.1</v>
       </c>
       <c r="R59" s="1">
-        <v>0</v>
+        <v>17726.0</v>
       </c>
       <c r="S59" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U59" s="6">
-        <v>0</v>
-      </c>
-      <c r="V59" s="2"/>
+        <v>17726</v>
+      </c>
+      <c r="V59" s="2">
+        <v>1</v>
+      </c>
       <c r="W59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>177.26</v>
+      </c>
+      <c r="X59" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y59" s="1">
-        <v>0.0</v>
+        <v>-17914.6</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
@@ -9259,12 +10257,12 @@
       <c r="AC59" s="1">
         <v>0</v>
       </c>
-      <c r="AD59" s="2">
+      <c r="AD59">
         <v>0</v>
       </c>
       <c r="AE59"/>
       <c r="AG59" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:33">
@@ -9275,17 +10273,17 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>214903.25838125</v>
+        <v>19706.5</v>
       </c>
       <c r="F60" s="2">
         <v>0.1</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="1"/>
@@ -9296,30 +10294,34 @@
       <c r="N60" s="1"/>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>0</v>
+        <v>15953.0</v>
       </c>
       <c r="Q60" s="2">
         <v>0.1</v>
       </c>
       <c r="R60" s="1">
-        <v>0</v>
+        <v>15953.0</v>
       </c>
       <c r="S60" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>0</v>
-      </c>
-      <c r="V60" s="2"/>
+        <v>15953</v>
+      </c>
+      <c r="V60" s="2">
+        <v>1</v>
+      </c>
       <c r="W60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>159.53</v>
+      </c>
+      <c r="X60" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y60" s="1">
-        <v>0.0</v>
+        <v>-19706.5</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
@@ -9331,12 +10333,12 @@
       <c r="AC60" s="1">
         <v>0</v>
       </c>
-      <c r="AD60" s="2">
+      <c r="AD60">
         <v>0</v>
       </c>
       <c r="AE60"/>
       <c r="AG60" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:33">
@@ -9347,17 +10349,17 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>236393.58421938</v>
+        <v>21677.7</v>
       </c>
       <c r="F61" s="2">
         <v>0.1</v>
       </c>
       <c r="G61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="1"/>
@@ -9368,30 +10370,34 @@
       <c r="N61" s="1"/>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>0</v>
+        <v>14358.0</v>
       </c>
       <c r="Q61" s="2">
         <v>0.1</v>
       </c>
       <c r="R61" s="1">
-        <v>0</v>
+        <v>14358.0</v>
       </c>
       <c r="S61" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U61" s="6">
-        <v>0</v>
-      </c>
-      <c r="V61" s="2"/>
+        <v>14358</v>
+      </c>
+      <c r="V61" s="2">
+        <v>1</v>
+      </c>
       <c r="W61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X61" s="2"/>
+        <v>143.58</v>
+      </c>
+      <c r="X61" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y61" s="1">
-        <v>0.0</v>
+        <v>-21677.7</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
@@ -9403,12 +10409,12 @@
       <c r="AC61" s="1">
         <v>0</v>
       </c>
-      <c r="AD61" s="2">
+      <c r="AD61">
         <v>0</v>
       </c>
       <c r="AE61"/>
       <c r="AG61" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:33">
@@ -9419,17 +10425,17 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>260032.94264132</v>
+        <v>23845.8</v>
       </c>
       <c r="F62" s="2">
         <v>0.1</v>
       </c>
       <c r="G62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="1"/>
@@ -9440,30 +10446,34 @@
       <c r="N62" s="1"/>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>0</v>
+        <v>12922.0</v>
       </c>
       <c r="Q62" s="2">
         <v>0.1</v>
       </c>
       <c r="R62" s="1">
-        <v>0</v>
+        <v>12922.0</v>
       </c>
       <c r="S62" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U62" s="6">
-        <v>0</v>
-      </c>
-      <c r="V62" s="2"/>
+        <v>12922</v>
+      </c>
+      <c r="V62" s="2">
+        <v>1</v>
+      </c>
       <c r="W62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X62" s="2"/>
+        <v>129.22</v>
+      </c>
+      <c r="X62" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y62" s="1">
-        <v>0.0</v>
+        <v>-23845.8</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
@@ -9475,12 +10485,12 @@
       <c r="AC62" s="1">
         <v>0</v>
       </c>
-      <c r="AD62" s="2">
+      <c r="AD62">
         <v>0</v>
       </c>
       <c r="AE62"/>
       <c r="AG62" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:33">
@@ -9491,17 +10501,17 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>286036.23690545</v>
+        <v>26230.6</v>
       </c>
       <c r="F63" s="2">
         <v>0.1</v>
       </c>
       <c r="G63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="1"/>
@@ -9512,30 +10522,34 @@
       <c r="N63" s="1"/>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>0</v>
+        <v>11630.0</v>
       </c>
       <c r="Q63" s="2">
         <v>0.1</v>
       </c>
       <c r="R63" s="1">
-        <v>0</v>
+        <v>11630.0</v>
       </c>
       <c r="S63" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U63" s="6">
-        <v>0</v>
-      </c>
-      <c r="V63" s="2"/>
+        <v>11630</v>
+      </c>
+      <c r="V63" s="2">
+        <v>1</v>
+      </c>
       <c r="W63" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X63" s="2"/>
+        <v>116.3</v>
+      </c>
+      <c r="X63" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y63" s="1">
-        <v>0.0</v>
+        <v>-26230.6</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
@@ -9547,12 +10561,12 @@
       <c r="AC63" s="1">
         <v>0</v>
       </c>
-      <c r="AD63" s="2">
+      <c r="AD63">
         <v>0</v>
       </c>
       <c r="AE63"/>
       <c r="AG63" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -9563,17 +10577,17 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>314639.860596</v>
+        <v>28854.1</v>
       </c>
       <c r="F64" s="2">
         <v>0.1</v>
       </c>
       <c r="G64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="1"/>
@@ -9584,30 +10598,34 @@
       <c r="N64" s="1"/>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>0</v>
+        <v>10467.0</v>
       </c>
       <c r="Q64" s="2">
         <v>0.1</v>
       </c>
       <c r="R64" s="1">
-        <v>0</v>
+        <v>10467.0</v>
       </c>
       <c r="S64" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>0</v>
-      </c>
-      <c r="V64" s="2"/>
+        <v>10467</v>
+      </c>
+      <c r="V64" s="2">
+        <v>1</v>
+      </c>
       <c r="W64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X64" s="2"/>
+        <v>104.67</v>
+      </c>
+      <c r="X64" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y64" s="1">
-        <v>0.0</v>
+        <v>-28854.1</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
@@ -9619,12 +10637,12 @@
       <c r="AC64" s="1">
         <v>0</v>
       </c>
-      <c r="AD64" s="2">
+      <c r="AD64">
         <v>0</v>
       </c>
       <c r="AE64"/>
       <c r="AG64" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:33">
@@ -9635,17 +10653,17 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>346103.8466556</v>
+        <v>31739.4</v>
       </c>
       <c r="F65" s="2">
         <v>0.1</v>
       </c>
       <c r="G65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="1"/>
@@ -9656,30 +10674,34 @@
       <c r="N65" s="1"/>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>0</v>
+        <v>9420.0</v>
       </c>
       <c r="Q65" s="2">
         <v>0.1</v>
       </c>
       <c r="R65" s="1">
-        <v>0</v>
+        <v>9420.0</v>
       </c>
       <c r="S65" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U65" s="6">
-        <v>0</v>
-      </c>
-      <c r="V65" s="2"/>
+        <v>9420</v>
+      </c>
+      <c r="V65" s="2">
+        <v>1</v>
+      </c>
       <c r="W65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>94.2</v>
+      </c>
+      <c r="X65" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y65" s="1">
-        <v>0.0</v>
+        <v>-31739.4</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
@@ -9691,12 +10713,12 @@
       <c r="AC65" s="1">
         <v>0</v>
       </c>
-      <c r="AD65" s="2">
+      <c r="AD65">
         <v>0</v>
       </c>
       <c r="AE65"/>
       <c r="AG65" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:33">
@@ -9707,17 +10729,17 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>380714.23132116</v>
+        <v>34912.9</v>
       </c>
       <c r="F66" s="2">
         <v>0.1</v>
       </c>
       <c r="G66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="1"/>
@@ -9728,30 +10750,34 @@
       <c r="N66" s="1"/>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>0</v>
+        <v>8478.0</v>
       </c>
       <c r="Q66" s="2">
         <v>0.1</v>
       </c>
       <c r="R66" s="1">
-        <v>0</v>
+        <v>8478.0</v>
       </c>
       <c r="S66" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U66" s="6">
-        <v>0</v>
-      </c>
-      <c r="V66" s="2"/>
+        <v>8478</v>
+      </c>
+      <c r="V66" s="2">
+        <v>1</v>
+      </c>
       <c r="W66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>84.78</v>
+      </c>
+      <c r="X66" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y66" s="1">
-        <v>0.0</v>
+        <v>-34912.9</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
@@ -9763,12 +10789,12 @@
       <c r="AC66" s="1">
         <v>0</v>
       </c>
-      <c r="AD66" s="2">
+      <c r="AD66">
         <v>0</v>
       </c>
       <c r="AE66"/>
       <c r="AG66" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:33">
@@ -9779,17 +10805,17 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>418785.65445328</v>
+        <v>38404.3</v>
       </c>
       <c r="F67" s="2">
         <v>0.1</v>
       </c>
       <c r="G67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="1"/>
@@ -9800,30 +10826,34 @@
       <c r="N67" s="1"/>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>0</v>
+        <v>7630.0</v>
       </c>
       <c r="Q67" s="2">
         <v>0.1</v>
       </c>
       <c r="R67" s="1">
-        <v>0</v>
+        <v>7630.0</v>
       </c>
       <c r="S67" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U67" s="6">
-        <v>0</v>
-      </c>
-      <c r="V67" s="2"/>
+        <v>7630</v>
+      </c>
+      <c r="V67" s="2">
+        <v>1</v>
+      </c>
       <c r="W67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X67" s="2"/>
+        <v>76.3</v>
+      </c>
+      <c r="X67" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y67" s="1">
-        <v>0.0</v>
+        <v>-38404.3</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
@@ -9835,12 +10865,12 @@
       <c r="AC67" s="1">
         <v>0</v>
       </c>
-      <c r="AD67" s="2">
+      <c r="AD67">
         <v>0</v>
       </c>
       <c r="AE67"/>
       <c r="AG67" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -9851,17 +10881,17 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>460664.21989861</v>
+        <v>42244.4</v>
       </c>
       <c r="F68" s="2">
         <v>0.1</v>
       </c>
       <c r="G68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="1"/>
@@ -9872,30 +10902,34 @@
       <c r="N68" s="1"/>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>0</v>
+        <v>6867.0</v>
       </c>
       <c r="Q68" s="2">
         <v>0.1</v>
       </c>
       <c r="R68" s="1">
-        <v>0</v>
+        <v>6867.0</v>
       </c>
       <c r="S68" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>0</v>
-      </c>
-      <c r="V68" s="2"/>
+        <v>6867</v>
+      </c>
+      <c r="V68" s="2">
+        <v>1</v>
+      </c>
       <c r="W68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X68" s="2"/>
+        <v>68.67</v>
+      </c>
+      <c r="X68" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y68" s="1">
-        <v>0.0</v>
+        <v>-42244.4</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
@@ -9907,12 +10941,12 @@
       <c r="AC68" s="1">
         <v>0</v>
       </c>
-      <c r="AD68" s="2">
+      <c r="AD68">
         <v>0</v>
       </c>
       <c r="AE68"/>
       <c r="AG68" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:33">
@@ -9923,17 +10957,17 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>506730.64188847</v>
+        <v>46468.4</v>
       </c>
       <c r="F69" s="2">
         <v>0.1</v>
       </c>
       <c r="G69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="1"/>
@@ -9944,30 +10978,34 @@
       <c r="N69" s="1"/>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>0</v>
+        <v>6180.0</v>
       </c>
       <c r="Q69" s="2">
         <v>0.1</v>
       </c>
       <c r="R69" s="1">
-        <v>0</v>
+        <v>6180.0</v>
       </c>
       <c r="S69" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U69" s="6">
-        <v>0</v>
-      </c>
-      <c r="V69" s="2"/>
+        <v>6180</v>
+      </c>
+      <c r="V69" s="2">
+        <v>1</v>
+      </c>
       <c r="W69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X69" s="2"/>
+        <v>61.8</v>
+      </c>
+      <c r="X69" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y69" s="1">
-        <v>0.0</v>
+        <v>-46468.4</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
@@ -9979,12 +11017,12 @@
       <c r="AC69" s="1">
         <v>0</v>
       </c>
-      <c r="AD69" s="2">
+      <c r="AD69">
         <v>0</v>
       </c>
       <c r="AE69"/>
       <c r="AG69" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:33">
@@ -9995,17 +11033,17 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>557403.70607732</v>
+        <v>51114.8</v>
       </c>
       <c r="F70" s="2">
         <v>0.1</v>
       </c>
       <c r="G70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="1"/>
@@ -10016,30 +11054,34 @@
       <c r="N70" s="1"/>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>0</v>
+        <v>5562.0</v>
       </c>
       <c r="Q70" s="2">
         <v>0.1</v>
       </c>
       <c r="R70" s="1">
-        <v>0</v>
+        <v>5562.0</v>
       </c>
       <c r="S70" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U70" s="6">
-        <v>0</v>
-      </c>
-      <c r="V70" s="2"/>
+        <v>5562</v>
+      </c>
+      <c r="V70" s="2">
+        <v>1</v>
+      </c>
       <c r="W70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X70" s="2"/>
+        <v>55.62</v>
+      </c>
+      <c r="X70" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y70" s="1">
-        <v>0.0</v>
+        <v>-51114.8</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
@@ -10051,12 +11093,12 @@
       <c r="AC70" s="1">
         <v>0</v>
       </c>
-      <c r="AD70" s="2">
+      <c r="AD70">
         <v>0</v>
       </c>
       <c r="AE70"/>
       <c r="AG70" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:33">
@@ -10067,17 +11109,17 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>613144.07668505</v>
+        <v>56226.5</v>
       </c>
       <c r="F71" s="2">
         <v>0.1</v>
       </c>
       <c r="G71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="1"/>
@@ -10088,30 +11130,34 @@
       <c r="N71" s="1"/>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>0</v>
+        <v>5006.0</v>
       </c>
       <c r="Q71" s="2">
         <v>0.1</v>
       </c>
       <c r="R71" s="1">
-        <v>0</v>
+        <v>5006.0</v>
       </c>
       <c r="S71" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U71" s="6">
-        <v>0</v>
-      </c>
-      <c r="V71" s="2"/>
+        <v>5006</v>
+      </c>
+      <c r="V71" s="2">
+        <v>1</v>
+      </c>
       <c r="W71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X71" s="2"/>
+        <v>50.06</v>
+      </c>
+      <c r="X71" s="2">
+        <v>0.01</v>
+      </c>
       <c r="Y71" s="1">
-        <v>0.0</v>
+        <v>-56226.5</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
@@ -10123,12 +11169,12 @@
       <c r="AC71" s="1">
         <v>0</v>
       </c>
-      <c r="AD71" s="2">
+      <c r="AD71">
         <v>0</v>
       </c>
       <c r="AE71"/>
       <c r="AG71" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:33">
@@ -10139,17 +11185,17 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>674458.48435356</v>
+        <v>61849.7</v>
       </c>
       <c r="F72" s="16">
         <v>0.1</v>
       </c>
       <c r="G72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="5"/>
@@ -10160,30 +11206,34 @@
       <c r="N72" s="5"/>
       <c r="O72" s="16"/>
       <c r="P72" s="5">
-        <v>0</v>
+        <v>4505.0</v>
       </c>
       <c r="Q72" s="16">
         <v>0.1</v>
       </c>
       <c r="R72" s="5">
-        <v>0</v>
+        <v>4505.0</v>
       </c>
       <c r="S72" s="5">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="T72" s="5">
-        <v>0</v>
+        <v>180000.0</v>
       </c>
       <c r="U72" s="5">
-        <v>0</v>
-      </c>
-      <c r="V72" s="16"/>
+        <v>4505</v>
+      </c>
+      <c r="V72" s="16">
+        <v>1</v>
+      </c>
       <c r="W72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="X72" s="16"/>
+        <v>45.05</v>
+      </c>
+      <c r="X72" s="16">
+        <v>0.01</v>
+      </c>
       <c r="Y72" s="5">
-        <v>0.0</v>
+        <v>-61849.7</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
@@ -10195,12 +11245,13 @@
       <c r="AC72" s="5">
         <v>0</v>
       </c>
-      <c r="AD72" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE72"/>
+      <c r="AD72" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
       <c r="AG72" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:33">
@@ -10232,7 +11283,6 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-      <c r="AD73" s="2"/>
     </row>
     <row r="74" spans="1:33">
       <c r="B74" s="1"/>
@@ -10263,7 +11313,6 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-      <c r="AD74" s="2"/>
     </row>
     <row r="75" spans="1:33">
       <c r="B75" s="1"/>
@@ -10294,7 +11343,6 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-      <c r="AD75" s="2"/>
     </row>
     <row r="76" spans="1:33">
       <c r="B76" s="1"/>
@@ -10325,7 +11373,6 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-      <c r="AD76" s="2"/>
     </row>
     <row r="77" spans="1:33">
       <c r="B77" s="1"/>
@@ -10356,7 +11403,6 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-      <c r="AD77" s="2"/>
     </row>
     <row r="78" spans="1:33">
       <c r="B78" s="1"/>
@@ -10387,7 +11433,6 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-      <c r="AD78" s="2"/>
     </row>
     <row r="79" spans="1:33">
       <c r="B79" s="1"/>
@@ -10418,7 +11463,6 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-      <c r="AD79" s="2"/>
     </row>
     <row r="80" spans="1:33">
       <c r="B80" s="1"/>
@@ -10449,7 +11493,6 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-      <c r="AD80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/tests/Feature/config/boat_tenpercent.xlsx
+++ b/tests/Feature/config/boat_tenpercent.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>private</t>
   </si>
@@ -112,7 +112,7 @@
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl kostnader)</t>
+    <t>Finans kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -148,115 +148,118 @@
     <t>boat</t>
   </si>
   <si>
-    <t xml:space="preserve">000 Asset rule </t>
+    <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t>0Drivstoff/Forsikring/Vedlikehold/Opplagverditap Asset rule Using current amount: 200000 * 1</t>
+    <t>Drivstoff/Forsikring/Vedlikehold/Opplagverditap Asset rule: Using current amount: 200000 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 180000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 200000 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 162000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 180000 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 145800 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 162000 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 131220 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 145800 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 118098 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 131220 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 106288 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 118098 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 95659 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 106288 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 86093 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 95659 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 77484 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 86093 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 69736 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 77484 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 62762 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 69736 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 56486 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 62762 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 50837 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 56486 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 45753 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 50837 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 41178 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 45753 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 37060 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 41178 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 33354 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 37060 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 30019 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 33354 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 27017 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 30019 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 24315 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 27017 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 21884 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 24315 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 19696 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 21884 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 17726 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 19696 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 15953 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 17726 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 14358 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 15953 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 12922 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 14358 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 11630 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 12922 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 10467 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 11630 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 9420 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 10467 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 8478 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 9420 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 7630 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 8478 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 6867 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 7630 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 6180 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 6867 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 5562 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 6180 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 5006 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 5562 * 1</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -663,7 +666,7 @@
     <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -678,7 +681,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -910,13 +913,13 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -986,13 +989,13 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1062,13 +1065,13 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1138,13 +1141,13 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1214,13 +1217,13 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1290,13 +1293,13 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -1366,13 +1369,13 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -1442,13 +1445,13 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -1518,13 +1521,13 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -1594,13 +1597,13 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -1670,13 +1673,13 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -1746,13 +1749,13 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -1822,13 +1825,13 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -1898,13 +1901,13 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -1974,13 +1977,13 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -2050,13 +2053,13 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -2126,13 +2129,13 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -2202,13 +2205,13 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -2278,13 +2281,13 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -2354,13 +2357,13 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -2430,13 +2433,13 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -2506,13 +2509,13 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -2582,13 +2585,13 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -2658,13 +2661,13 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -2734,13 +2737,13 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -2810,13 +2813,13 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -2886,13 +2889,13 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -2962,13 +2965,13 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -3038,13 +3041,13 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -3114,13 +3117,13 @@
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -3190,13 +3193,13 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -3216,7 +3219,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>2200.0</v>
+        <v>26400.0</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
@@ -3241,20 +3244,20 @@
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S37" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U37" s="6">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
@@ -3262,17 +3265,17 @@
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
-        <v>-2200.0</v>
+        <v>-26400.0</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -3292,7 +3295,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>2420.0</v>
+        <v>29040.0</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
@@ -3317,20 +3320,20 @@
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>162000.0</v>
+        <v>180000.0</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>162000.0</v>
+        <v>180000.0</v>
       </c>
       <c r="S38" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>162000</v>
+        <v>180000</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="1">
@@ -3338,17 +3341,17 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
-        <v>-2420.0</v>
+        <v>-29040.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -3368,7 +3371,7 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>2662.0</v>
+        <v>31944.0</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8">
@@ -3393,20 +3396,20 @@
       </c>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
-        <v>145800.0</v>
+        <v>162000.0</v>
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="8">
-        <v>145800.0</v>
+        <v>162000.0</v>
       </c>
       <c r="S39" s="8">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T39" s="8">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U39" s="8">
-        <v>145800</v>
+        <v>162000</v>
       </c>
       <c r="V39" s="9"/>
       <c r="W39" s="8">
@@ -3414,17 +3417,17 @@
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="8">
-        <v>-2662.0</v>
+        <v>-31944.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD39" s="7">
         <v>0</v>
@@ -3445,7 +3448,7 @@
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>2928.2</v>
+        <v>35138.4</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -3470,20 +3473,20 @@
       </c>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>131220.0</v>
+        <v>145800.0</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>131220.0</v>
+        <v>145800.0</v>
       </c>
       <c r="S40" s="11">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U40" s="11">
-        <v>131220</v>
+        <v>145800</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
@@ -3491,17 +3494,17 @@
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
-        <v>-2928.2</v>
+        <v>-35138.4</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD40" s="10">
         <v>0</v>
@@ -3522,7 +3525,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>3220.8</v>
+        <v>38651.8</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -3547,20 +3550,20 @@
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>118098.0</v>
+        <v>131220.0</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>118098.0</v>
+        <v>131220.0</v>
       </c>
       <c r="S41" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U41" s="6">
-        <v>118098</v>
+        <v>131220</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="1">
@@ -3568,17 +3571,17 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
-        <v>-3220.8</v>
+        <v>-38651.8</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD41">
         <v>0</v>
@@ -3598,7 +3601,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>3543.1</v>
+        <v>42517.2</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
@@ -3623,20 +3626,20 @@
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>106288.0</v>
+        <v>118098.0</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>106288.0</v>
+        <v>118098.0</v>
       </c>
       <c r="S42" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U42" s="6">
-        <v>106288</v>
+        <v>118098</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="1">
@@ -3644,17 +3647,17 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
-        <v>-3543.1</v>
+        <v>-42517.2</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD42">
         <v>0</v>
@@ -3674,7 +3677,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>3897.3</v>
+        <v>46768.7</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
@@ -3699,20 +3702,20 @@
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>95659.0</v>
+        <v>106288.0</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>95659.0</v>
+        <v>106288.0</v>
       </c>
       <c r="S43" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U43" s="6">
-        <v>95659</v>
+        <v>106288</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="1">
@@ -3720,17 +3723,17 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
-        <v>-3897.3</v>
+        <v>-46768.7</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -3750,7 +3753,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>4286.7</v>
+        <v>51445.9</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
@@ -3775,20 +3778,20 @@
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>86093.0</v>
+        <v>95659.0</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>86093.0</v>
+        <v>95659.0</v>
       </c>
       <c r="S44" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U44" s="6">
-        <v>86093</v>
+        <v>95659</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="1">
@@ -3796,17 +3799,17 @@
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
-        <v>-4286.7</v>
+        <v>-51445.9</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD44">
         <v>0</v>
@@ -3826,7 +3829,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>4715.7</v>
+        <v>56590.6</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
@@ -3851,20 +3854,20 @@
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>77484.0</v>
+        <v>86093.0</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>77484.0</v>
+        <v>86093.0</v>
       </c>
       <c r="S45" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U45" s="6">
-        <v>77484</v>
+        <v>86093</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="1">
@@ -3872,17 +3875,17 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
-        <v>-4715.7</v>
+        <v>-56590.6</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD45">
         <v>0</v>
@@ -3902,7 +3905,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>5187.6</v>
+        <v>62250.1</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
@@ -3927,20 +3930,20 @@
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>69736.0</v>
+        <v>77484.0</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>69736.0</v>
+        <v>77484.0</v>
       </c>
       <c r="S46" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U46" s="6">
-        <v>69736</v>
+        <v>77484</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="1">
@@ -3948,17 +3951,17 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
-        <v>-5187.6</v>
+        <v>-62250.1</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD46">
         <v>0</v>
@@ -3978,7 +3981,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>5706.8</v>
+        <v>68475.0</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
@@ -4003,20 +4006,20 @@
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>62762.0</v>
+        <v>69736.0</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>62762.0</v>
+        <v>69736.0</v>
       </c>
       <c r="S47" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U47" s="6">
-        <v>62762</v>
+        <v>69736</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="1">
@@ -4024,17 +4027,17 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
-        <v>-5706.8</v>
+        <v>-68475.0</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD47">
         <v>0</v>
@@ -4054,7 +4057,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>6277.7</v>
+        <v>75322.5</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
@@ -4079,20 +4082,20 @@
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>56486.0</v>
+        <v>62762.0</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>56486.0</v>
+        <v>62762.0</v>
       </c>
       <c r="S48" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U48" s="6">
-        <v>56486</v>
+        <v>62762</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="1">
@@ -4100,17 +4103,17 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
-        <v>-6277.7</v>
+        <v>-75322.5</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD48">
         <v>0</v>
@@ -4130,7 +4133,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>6905.8</v>
+        <v>82855.3</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
@@ -4155,20 +4158,20 @@
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>50837.0</v>
+        <v>56486.0</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>50837.0</v>
+        <v>56486.0</v>
       </c>
       <c r="S49" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U49" s="6">
-        <v>50837</v>
+        <v>56486</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="1">
@@ -4176,17 +4179,17 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
-        <v>-6905.8</v>
+        <v>-82855.3</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD49">
         <v>0</v>
@@ -4206,7 +4209,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>7596.6</v>
+        <v>91140.5</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
@@ -4231,20 +4234,20 @@
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>45753.0</v>
+        <v>50837.0</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>45753.0</v>
+        <v>50837.0</v>
       </c>
       <c r="S50" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U50" s="6">
-        <v>45753</v>
+        <v>50837</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="1">
@@ -4252,17 +4255,17 @@
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
-        <v>-7596.6</v>
+        <v>-91140.5</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD50">
         <v>0</v>
@@ -4282,7 +4285,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>8356.7</v>
+        <v>100255.1</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
@@ -4307,20 +4310,20 @@
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>41178.0</v>
+        <v>45753.0</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>41178.0</v>
+        <v>45753.0</v>
       </c>
       <c r="S51" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U51" s="6">
-        <v>41178</v>
+        <v>45753</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="1">
@@ -4328,17 +4331,17 @@
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
-        <v>-8356.7</v>
+        <v>-100255.1</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD51">
         <v>0</v>
@@ -4358,7 +4361,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>9192.7</v>
+        <v>110280.5</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
@@ -4383,20 +4386,20 @@
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>37060.0</v>
+        <v>41178.0</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>37060.0</v>
+        <v>41178.0</v>
       </c>
       <c r="S52" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U52" s="6">
-        <v>37060</v>
+        <v>41178</v>
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="1">
@@ -4404,17 +4407,17 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
-        <v>-9192.7</v>
+        <v>-110280.5</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD52">
         <v>0</v>
@@ -4434,7 +4437,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>10112.3</v>
+        <v>121309.1</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
@@ -4459,20 +4462,20 @@
       </c>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>33354.0</v>
+        <v>37060.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>33354.0</v>
+        <v>37060.0</v>
       </c>
       <c r="S53" s="13">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U53" s="13">
-        <v>33354</v>
+        <v>37060</v>
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="13">
@@ -4480,17 +4483,17 @@
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>-10112.3</v>
+        <v>-121309.1</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0</v>
@@ -4511,7 +4514,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>11123.2</v>
+        <v>133439.9</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
@@ -4536,20 +4539,20 @@
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>30019.0</v>
+        <v>33354.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>30019.0</v>
+        <v>33354.0</v>
       </c>
       <c r="S54" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U54" s="6">
-        <v>30019</v>
+        <v>33354</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="1">
@@ -4557,17 +4560,17 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>-11123.2</v>
+        <v>-133439.9</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD54">
         <v>0</v>
@@ -4587,7 +4590,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>12235.3</v>
+        <v>146784.0</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
@@ -4612,20 +4615,20 @@
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>27017.0</v>
+        <v>30019.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>27017.0</v>
+        <v>30019.0</v>
       </c>
       <c r="S55" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U55" s="6">
-        <v>27017</v>
+        <v>30019</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="1">
@@ -4633,17 +4636,17 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>-12235.3</v>
+        <v>-146784.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -4663,7 +4666,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>13458.5</v>
+        <v>161462.4</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
@@ -4688,20 +4691,20 @@
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>24315.0</v>
+        <v>27017.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>24315.0</v>
+        <v>27017.0</v>
       </c>
       <c r="S56" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>24315</v>
+        <v>27017</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="1">
@@ -4709,17 +4712,17 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>-13458.5</v>
+        <v>-161462.4</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD56">
         <v>0</v>
@@ -4739,7 +4742,7 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>14804.9</v>
+        <v>177608.2</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
@@ -4764,20 +4767,20 @@
       </c>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>21884.0</v>
+        <v>24315.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>21884.0</v>
+        <v>24315.0</v>
       </c>
       <c r="S57" s="13">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U57" s="13">
-        <v>21884</v>
+        <v>24315</v>
       </c>
       <c r="V57" s="14"/>
       <c r="W57" s="13">
@@ -4785,17 +4788,17 @@
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>-14804.9</v>
+        <v>-177608.2</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0</v>
@@ -4816,7 +4819,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>16285.5</v>
+        <v>195368.8</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -4841,20 +4844,20 @@
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>19696.0</v>
+        <v>21884.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>19696.0</v>
+        <v>21884.0</v>
       </c>
       <c r="S58" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U58" s="6">
-        <v>19696</v>
+        <v>21884</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
@@ -4862,17 +4865,17 @@
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>-16285.5</v>
+        <v>-195368.8</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD58">
         <v>0</v>
@@ -4892,7 +4895,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>17914.6</v>
+        <v>214905.9</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -4917,20 +4920,20 @@
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>17726.0</v>
+        <v>19696.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>17726.0</v>
+        <v>19696.0</v>
       </c>
       <c r="S59" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U59" s="6">
-        <v>17726</v>
+        <v>19696</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
@@ -4938,17 +4941,17 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>-17914.6</v>
+        <v>-214905.9</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD59">
         <v>0</v>
@@ -4968,7 +4971,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>19706.5</v>
+        <v>236396.6</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -4993,20 +4996,20 @@
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>15953.0</v>
+        <v>17726.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>15953.0</v>
+        <v>17726.0</v>
       </c>
       <c r="S60" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>15953</v>
+        <v>17726</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
@@ -5014,17 +5017,17 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>-19706.5</v>
+        <v>-236396.6</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD60">
         <v>0</v>
@@ -5044,7 +5047,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>21677.7</v>
+        <v>260036.7</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -5069,20 +5072,20 @@
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>14358.0</v>
+        <v>15953.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>14358.0</v>
+        <v>15953.0</v>
       </c>
       <c r="S61" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U61" s="6">
-        <v>14358</v>
+        <v>15953</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
@@ -5090,17 +5093,17 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>-21677.7</v>
+        <v>-260036.7</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD61">
         <v>0</v>
@@ -5120,7 +5123,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>23845.8</v>
+        <v>286040.7</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -5145,20 +5148,20 @@
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>12922.0</v>
+        <v>14358.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>12922.0</v>
+        <v>14358.0</v>
       </c>
       <c r="S62" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U62" s="6">
-        <v>12922</v>
+        <v>14358</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="1">
@@ -5166,17 +5169,17 @@
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>-23845.8</v>
+        <v>-286040.7</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -5196,7 +5199,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>26230.6</v>
+        <v>314645.1</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -5221,20 +5224,20 @@
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>11630.0</v>
+        <v>12922.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>11630.0</v>
+        <v>12922.0</v>
       </c>
       <c r="S63" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U63" s="6">
-        <v>11630</v>
+        <v>12922</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="1">
@@ -5242,17 +5245,17 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>-26230.6</v>
+        <v>-314645.1</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -5272,7 +5275,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>28854.1</v>
+        <v>346109.5</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -5297,20 +5300,20 @@
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>10467.0</v>
+        <v>11630.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>10467.0</v>
+        <v>11630.0</v>
       </c>
       <c r="S64" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>10467</v>
+        <v>11630</v>
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="1">
@@ -5318,17 +5321,17 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>-28854.1</v>
+        <v>-346109.5</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD64">
         <v>0</v>
@@ -5348,7 +5351,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>31739.4</v>
+        <v>380721.0</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -5373,20 +5376,20 @@
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>9420.0</v>
+        <v>10467.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>9420.0</v>
+        <v>10467.0</v>
       </c>
       <c r="S65" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U65" s="6">
-        <v>9420</v>
+        <v>10467</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="1">
@@ -5394,17 +5397,17 @@
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>-31739.4</v>
+        <v>-380721.0</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD65">
         <v>0</v>
@@ -5424,7 +5427,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>34912.9</v>
+        <v>418793.1</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -5449,20 +5452,20 @@
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>8478.0</v>
+        <v>9420.0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>8478.0</v>
+        <v>9420.0</v>
       </c>
       <c r="S66" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U66" s="6">
-        <v>8478</v>
+        <v>9420</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="1">
@@ -5470,17 +5473,17 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>-34912.9</v>
+        <v>-418793.1</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD66">
         <v>0</v>
@@ -5500,7 +5503,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>38404.3</v>
+        <v>460672.3</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -5525,20 +5528,20 @@
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>7630.0</v>
+        <v>8478.0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>7630.0</v>
+        <v>8478.0</v>
       </c>
       <c r="S67" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U67" s="6">
-        <v>7630</v>
+        <v>8478</v>
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="1">
@@ -5546,17 +5549,17 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>-38404.3</v>
+        <v>-460672.3</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD67">
         <v>0</v>
@@ -5576,7 +5579,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>42244.4</v>
+        <v>506739.2</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -5601,20 +5604,20 @@
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>6867.0</v>
+        <v>7630.0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>6867.0</v>
+        <v>7630.0</v>
       </c>
       <c r="S68" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>6867</v>
+        <v>7630</v>
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="1">
@@ -5622,17 +5625,17 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>-42244.4</v>
+        <v>-506739.2</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD68">
         <v>0</v>
@@ -5652,7 +5655,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>46468.4</v>
+        <v>557412.9</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -5677,20 +5680,20 @@
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>6180.0</v>
+        <v>6867.0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>6180.0</v>
+        <v>6867.0</v>
       </c>
       <c r="S69" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U69" s="6">
-        <v>6180</v>
+        <v>6867</v>
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="1">
@@ -5698,17 +5701,17 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>-46468.4</v>
+        <v>-557412.9</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD69">
         <v>0</v>
@@ -5728,7 +5731,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>51114.8</v>
+        <v>613154.3</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -5753,20 +5756,20 @@
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>5562.0</v>
+        <v>6180.0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>5562.0</v>
+        <v>6180.0</v>
       </c>
       <c r="S70" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U70" s="6">
-        <v>5562</v>
+        <v>6180</v>
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
@@ -5774,17 +5777,17 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>-51114.8</v>
+        <v>-613154.3</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -5804,7 +5807,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>56226.5</v>
+        <v>674469.4</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -5829,20 +5832,20 @@
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>5006.0</v>
+        <v>5562.0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>5006.0</v>
+        <v>5562.0</v>
       </c>
       <c r="S71" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U71" s="6">
-        <v>5006</v>
+        <v>5562</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="1">
@@ -5850,17 +5853,17 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>-56226.5</v>
+        <v>-674469.4</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD71">
         <v>0</v>
@@ -5880,7 +5883,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>61849.7</v>
+        <v>741915.9</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -5905,20 +5908,20 @@
       </c>
       <c r="O72" s="16"/>
       <c r="P72" s="5">
-        <v>4505.0</v>
+        <v>5006.0</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>4505.0</v>
+        <v>5006.0</v>
       </c>
       <c r="S72" s="5">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T72" s="5">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U72" s="5">
-        <v>4505</v>
+        <v>5006</v>
       </c>
       <c r="V72" s="16"/>
       <c r="W72" s="5">
@@ -5926,17 +5929,17 @@
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>-61849.7</v>
+        <v>-741915.9</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0</v>
@@ -6218,7 +6221,7 @@
     <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -6233,7 +6236,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -6449,7 +6452,7 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
@@ -6457,13 +6460,13 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -6517,7 +6520,7 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
@@ -6525,13 +6528,13 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -6585,7 +6588,7 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
@@ -6593,13 +6596,13 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -6653,7 +6656,7 @@
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="1">
@@ -6661,13 +6664,13 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -6721,7 +6724,7 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
@@ -6729,13 +6732,13 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -6789,7 +6792,7 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
@@ -6797,13 +6800,13 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -6857,7 +6860,7 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
@@ -6865,13 +6868,13 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -6925,7 +6928,7 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
@@ -6933,13 +6936,13 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -6993,7 +6996,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
@@ -7001,13 +7004,13 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -7061,7 +7064,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
@@ -7069,13 +7072,13 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -7129,7 +7132,7 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
@@ -7137,13 +7140,13 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -7197,7 +7200,7 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
@@ -7205,13 +7208,13 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -7265,7 +7268,7 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
@@ -7273,13 +7276,13 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -7333,7 +7336,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
@@ -7341,13 +7344,13 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -7401,7 +7404,7 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
@@ -7409,13 +7412,13 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -7469,7 +7472,7 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
@@ -7477,13 +7480,13 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -7537,7 +7540,7 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
@@ -7545,13 +7548,13 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -7605,7 +7608,7 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
@@ -7613,13 +7616,13 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -7673,7 +7676,7 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
@@ -7681,13 +7684,13 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -7741,7 +7744,7 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
@@ -7749,13 +7752,13 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -7809,7 +7812,7 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
@@ -7817,13 +7820,13 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -7877,7 +7880,7 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
@@ -7885,13 +7888,13 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -7945,7 +7948,7 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
@@ -7953,13 +7956,13 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -8013,7 +8016,7 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
@@ -8021,13 +8024,13 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -8081,7 +8084,7 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
@@ -8089,13 +8092,13 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -8149,7 +8152,7 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
@@ -8157,13 +8160,13 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -8217,7 +8220,7 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
@@ -8225,13 +8228,13 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -8285,7 +8288,7 @@
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
@@ -8293,13 +8296,13 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -8353,7 +8356,7 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
@@ -8361,13 +8364,13 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -8421,7 +8424,7 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
@@ -8429,13 +8432,13 @@
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -8489,7 +8492,7 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
@@ -8497,13 +8500,13 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -8525,7 +8528,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>2200.0</v>
+        <v>26400.0</v>
       </c>
       <c r="F37" s="2">
         <v>0.1</v>
@@ -8542,44 +8545,44 @@
       <c r="N37" s="1"/>
       <c r="O37" s="2"/>
       <c r="P37" s="6">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="Q37" s="2">
         <v>0.1</v>
       </c>
       <c r="R37" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="S37" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U37" s="6">
-        <v>180000</v>
+        <v>200000</v>
       </c>
       <c r="V37" s="2">
         <v>1</v>
       </c>
       <c r="W37" s="1">
-        <v>1800.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="2">
         <v>0.01</v>
       </c>
       <c r="Y37" s="1">
-        <v>-2200.0</v>
+        <v>-26400.0</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -8601,7 +8604,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>2420.0</v>
+        <v>29040.0</v>
       </c>
       <c r="F38" s="2">
         <v>0.1</v>
@@ -8618,44 +8621,44 @@
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
-        <v>162000.0</v>
+        <v>180000.0</v>
       </c>
       <c r="Q38" s="2">
         <v>0.1</v>
       </c>
       <c r="R38" s="1">
-        <v>162000.0</v>
+        <v>180000.0</v>
       </c>
       <c r="S38" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>162000</v>
+        <v>180000</v>
       </c>
       <c r="V38" s="2">
         <v>1</v>
       </c>
       <c r="W38" s="1">
-        <v>1620.0</v>
+        <v>0</v>
       </c>
       <c r="X38" s="2">
         <v>0.01</v>
       </c>
       <c r="Y38" s="1">
-        <v>-2420.0</v>
+        <v>-29040.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -8677,7 +8680,7 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>2662.0</v>
+        <v>31944.0</v>
       </c>
       <c r="F39" s="9">
         <v>0.1</v>
@@ -8694,44 +8697,44 @@
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
-        <v>145800.0</v>
+        <v>162000.0</v>
       </c>
       <c r="Q39" s="9">
         <v>0.1</v>
       </c>
       <c r="R39" s="8">
-        <v>145800.0</v>
+        <v>162000.0</v>
       </c>
       <c r="S39" s="8">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T39" s="8">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U39" s="8">
-        <v>145800</v>
+        <v>162000</v>
       </c>
       <c r="V39" s="9">
         <v>1</v>
       </c>
       <c r="W39" s="8">
-        <v>1458.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="9">
         <v>0.01</v>
       </c>
       <c r="Y39" s="8">
-        <v>-2662.0</v>
+        <v>-31944.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD39" s="7">
         <v>0</v>
@@ -8754,7 +8757,7 @@
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>2928.2</v>
+        <v>35138.4</v>
       </c>
       <c r="F40" s="12">
         <v>0.1</v>
@@ -8771,44 +8774,44 @@
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
-        <v>131220.0</v>
+        <v>145800.0</v>
       </c>
       <c r="Q40" s="12">
         <v>0.1</v>
       </c>
       <c r="R40" s="11">
-        <v>131220.0</v>
+        <v>145800.0</v>
       </c>
       <c r="S40" s="11">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U40" s="11">
-        <v>131220</v>
+        <v>145800</v>
       </c>
       <c r="V40" s="12">
         <v>1</v>
       </c>
       <c r="W40" s="11">
-        <v>1312.2</v>
+        <v>0</v>
       </c>
       <c r="X40" s="12">
         <v>0.01</v>
       </c>
       <c r="Y40" s="11">
-        <v>-2928.2</v>
+        <v>-35138.4</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD40" s="10">
         <v>0</v>
@@ -8831,7 +8834,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>3220.8</v>
+        <v>38651.8</v>
       </c>
       <c r="F41" s="2">
         <v>0.1</v>
@@ -8848,44 +8851,44 @@
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
-        <v>118098.0</v>
+        <v>131220.0</v>
       </c>
       <c r="Q41" s="2">
         <v>0.1</v>
       </c>
       <c r="R41" s="1">
-        <v>118098.0</v>
+        <v>131220.0</v>
       </c>
       <c r="S41" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U41" s="6">
-        <v>118098</v>
+        <v>131220</v>
       </c>
       <c r="V41" s="2">
         <v>1</v>
       </c>
       <c r="W41" s="1">
-        <v>1180.98</v>
+        <v>0</v>
       </c>
       <c r="X41" s="2">
         <v>0.01</v>
       </c>
       <c r="Y41" s="1">
-        <v>-3220.8</v>
+        <v>-38651.8</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD41">
         <v>0</v>
@@ -8907,7 +8910,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>3543.1</v>
+        <v>42517.2</v>
       </c>
       <c r="F42" s="2">
         <v>0.1</v>
@@ -8924,44 +8927,44 @@
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
-        <v>106288.0</v>
+        <v>118098.0</v>
       </c>
       <c r="Q42" s="2">
         <v>0.1</v>
       </c>
       <c r="R42" s="1">
-        <v>106288.0</v>
+        <v>118098.0</v>
       </c>
       <c r="S42" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U42" s="6">
-        <v>106288</v>
+        <v>118098</v>
       </c>
       <c r="V42" s="2">
         <v>1</v>
       </c>
       <c r="W42" s="1">
-        <v>1062.88</v>
+        <v>0</v>
       </c>
       <c r="X42" s="2">
         <v>0.01</v>
       </c>
       <c r="Y42" s="1">
-        <v>-3543.1</v>
+        <v>-42517.2</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD42">
         <v>0</v>
@@ -8983,7 +8986,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>3897.3</v>
+        <v>46768.7</v>
       </c>
       <c r="F43" s="2">
         <v>0.1</v>
@@ -9000,44 +9003,44 @@
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
-        <v>95659.0</v>
+        <v>106288.0</v>
       </c>
       <c r="Q43" s="2">
         <v>0.1</v>
       </c>
       <c r="R43" s="1">
-        <v>95659.0</v>
+        <v>106288.0</v>
       </c>
       <c r="S43" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U43" s="6">
-        <v>95659</v>
+        <v>106288</v>
       </c>
       <c r="V43" s="2">
         <v>1</v>
       </c>
       <c r="W43" s="1">
-        <v>956.59</v>
+        <v>0</v>
       </c>
       <c r="X43" s="2">
         <v>0.01</v>
       </c>
       <c r="Y43" s="1">
-        <v>-3897.3</v>
+        <v>-46768.7</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -9059,7 +9062,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>4286.7</v>
+        <v>51445.9</v>
       </c>
       <c r="F44" s="2">
         <v>0.1</v>
@@ -9076,44 +9079,44 @@
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
-        <v>86093.0</v>
+        <v>95659.0</v>
       </c>
       <c r="Q44" s="2">
         <v>0.1</v>
       </c>
       <c r="R44" s="1">
-        <v>86093.0</v>
+        <v>95659.0</v>
       </c>
       <c r="S44" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U44" s="6">
-        <v>86093</v>
+        <v>95659</v>
       </c>
       <c r="V44" s="2">
         <v>1</v>
       </c>
       <c r="W44" s="1">
-        <v>860.93</v>
+        <v>0</v>
       </c>
       <c r="X44" s="2">
         <v>0.01</v>
       </c>
       <c r="Y44" s="1">
-        <v>-4286.7</v>
+        <v>-51445.9</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD44">
         <v>0</v>
@@ -9135,7 +9138,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>4715.7</v>
+        <v>56590.6</v>
       </c>
       <c r="F45" s="2">
         <v>0.1</v>
@@ -9152,44 +9155,44 @@
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
-        <v>77484.0</v>
+        <v>86093.0</v>
       </c>
       <c r="Q45" s="2">
         <v>0.1</v>
       </c>
       <c r="R45" s="1">
-        <v>77484.0</v>
+        <v>86093.0</v>
       </c>
       <c r="S45" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U45" s="6">
-        <v>77484</v>
+        <v>86093</v>
       </c>
       <c r="V45" s="2">
         <v>1</v>
       </c>
       <c r="W45" s="1">
-        <v>774.84</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2">
         <v>0.01</v>
       </c>
       <c r="Y45" s="1">
-        <v>-4715.7</v>
+        <v>-56590.6</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD45">
         <v>0</v>
@@ -9211,7 +9214,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>5187.6</v>
+        <v>62250.1</v>
       </c>
       <c r="F46" s="2">
         <v>0.1</v>
@@ -9228,44 +9231,44 @@
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
-        <v>69736.0</v>
+        <v>77484.0</v>
       </c>
       <c r="Q46" s="2">
         <v>0.1</v>
       </c>
       <c r="R46" s="1">
-        <v>69736.0</v>
+        <v>77484.0</v>
       </c>
       <c r="S46" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U46" s="6">
-        <v>69736</v>
+        <v>77484</v>
       </c>
       <c r="V46" s="2">
         <v>1</v>
       </c>
       <c r="W46" s="1">
-        <v>697.36</v>
+        <v>0</v>
       </c>
       <c r="X46" s="2">
         <v>0.01</v>
       </c>
       <c r="Y46" s="1">
-        <v>-5187.6</v>
+        <v>-62250.1</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD46">
         <v>0</v>
@@ -9287,7 +9290,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>5706.8</v>
+        <v>68475.0</v>
       </c>
       <c r="F47" s="2">
         <v>0.1</v>
@@ -9304,44 +9307,44 @@
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
-        <v>62762.0</v>
+        <v>69736.0</v>
       </c>
       <c r="Q47" s="2">
         <v>0.1</v>
       </c>
       <c r="R47" s="1">
-        <v>62762.0</v>
+        <v>69736.0</v>
       </c>
       <c r="S47" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U47" s="6">
-        <v>62762</v>
+        <v>69736</v>
       </c>
       <c r="V47" s="2">
         <v>1</v>
       </c>
       <c r="W47" s="1">
-        <v>627.62</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2">
         <v>0.01</v>
       </c>
       <c r="Y47" s="1">
-        <v>-5706.8</v>
+        <v>-68475.0</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD47">
         <v>0</v>
@@ -9363,7 +9366,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>6277.7</v>
+        <v>75322.5</v>
       </c>
       <c r="F48" s="2">
         <v>0.1</v>
@@ -9380,44 +9383,44 @@
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
-        <v>56486.0</v>
+        <v>62762.0</v>
       </c>
       <c r="Q48" s="2">
         <v>0.1</v>
       </c>
       <c r="R48" s="1">
-        <v>56486.0</v>
+        <v>62762.0</v>
       </c>
       <c r="S48" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U48" s="6">
-        <v>56486</v>
+        <v>62762</v>
       </c>
       <c r="V48" s="2">
         <v>1</v>
       </c>
       <c r="W48" s="1">
-        <v>564.86</v>
+        <v>0</v>
       </c>
       <c r="X48" s="2">
         <v>0.01</v>
       </c>
       <c r="Y48" s="1">
-        <v>-6277.7</v>
+        <v>-75322.5</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD48">
         <v>0</v>
@@ -9439,7 +9442,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>6905.8</v>
+        <v>82855.3</v>
       </c>
       <c r="F49" s="2">
         <v>0.1</v>
@@ -9456,44 +9459,44 @@
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
-        <v>50837.0</v>
+        <v>56486.0</v>
       </c>
       <c r="Q49" s="2">
         <v>0.1</v>
       </c>
       <c r="R49" s="1">
-        <v>50837.0</v>
+        <v>56486.0</v>
       </c>
       <c r="S49" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U49" s="6">
-        <v>50837</v>
+        <v>56486</v>
       </c>
       <c r="V49" s="2">
         <v>1</v>
       </c>
       <c r="W49" s="1">
-        <v>508.37</v>
+        <v>0</v>
       </c>
       <c r="X49" s="2">
         <v>0.01</v>
       </c>
       <c r="Y49" s="1">
-        <v>-6905.8</v>
+        <v>-82855.3</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD49">
         <v>0</v>
@@ -9515,7 +9518,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>7596.6</v>
+        <v>91140.5</v>
       </c>
       <c r="F50" s="2">
         <v>0.1</v>
@@ -9532,44 +9535,44 @@
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
-        <v>45753.0</v>
+        <v>50837.0</v>
       </c>
       <c r="Q50" s="2">
         <v>0.1</v>
       </c>
       <c r="R50" s="1">
-        <v>45753.0</v>
+        <v>50837.0</v>
       </c>
       <c r="S50" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U50" s="6">
-        <v>45753</v>
+        <v>50837</v>
       </c>
       <c r="V50" s="2">
         <v>1</v>
       </c>
       <c r="W50" s="1">
-        <v>457.53</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2">
         <v>0.01</v>
       </c>
       <c r="Y50" s="1">
-        <v>-7596.6</v>
+        <v>-91140.5</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD50">
         <v>0</v>
@@ -9591,7 +9594,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>8356.7</v>
+        <v>100255.1</v>
       </c>
       <c r="F51" s="2">
         <v>0.1</v>
@@ -9608,44 +9611,44 @@
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
-        <v>41178.0</v>
+        <v>45753.0</v>
       </c>
       <c r="Q51" s="2">
         <v>0.1</v>
       </c>
       <c r="R51" s="1">
-        <v>41178.0</v>
+        <v>45753.0</v>
       </c>
       <c r="S51" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U51" s="6">
-        <v>41178</v>
+        <v>45753</v>
       </c>
       <c r="V51" s="2">
         <v>1</v>
       </c>
       <c r="W51" s="1">
-        <v>411.78</v>
+        <v>0</v>
       </c>
       <c r="X51" s="2">
         <v>0.01</v>
       </c>
       <c r="Y51" s="1">
-        <v>-8356.7</v>
+        <v>-100255.1</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD51">
         <v>0</v>
@@ -9667,7 +9670,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>9192.7</v>
+        <v>110280.5</v>
       </c>
       <c r="F52" s="2">
         <v>0.1</v>
@@ -9684,44 +9687,44 @@
       <c r="N52" s="1"/>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
-        <v>37060.0</v>
+        <v>41178.0</v>
       </c>
       <c r="Q52" s="2">
         <v>0.1</v>
       </c>
       <c r="R52" s="1">
-        <v>37060.0</v>
+        <v>41178.0</v>
       </c>
       <c r="S52" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U52" s="6">
-        <v>37060</v>
+        <v>41178</v>
       </c>
       <c r="V52" s="2">
         <v>1</v>
       </c>
       <c r="W52" s="1">
-        <v>370.6</v>
+        <v>0</v>
       </c>
       <c r="X52" s="2">
         <v>0.01</v>
       </c>
       <c r="Y52" s="1">
-        <v>-9192.7</v>
+        <v>-110280.5</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD52">
         <v>0</v>
@@ -9743,7 +9746,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>10112.3</v>
+        <v>121309.1</v>
       </c>
       <c r="F53" s="14">
         <v>0.1</v>
@@ -9760,44 +9763,44 @@
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
-        <v>33354.0</v>
+        <v>37060.0</v>
       </c>
       <c r="Q53" s="14">
         <v>0.1</v>
       </c>
       <c r="R53" s="13">
-        <v>33354.0</v>
+        <v>37060.0</v>
       </c>
       <c r="S53" s="13">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U53" s="13">
-        <v>33354</v>
+        <v>37060</v>
       </c>
       <c r="V53" s="14">
         <v>1</v>
       </c>
       <c r="W53" s="13">
-        <v>333.54</v>
+        <v>0</v>
       </c>
       <c r="X53" s="14">
         <v>0.01</v>
       </c>
       <c r="Y53" s="13">
-        <v>-10112.3</v>
+        <v>-121309.1</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0</v>
@@ -9820,7 +9823,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>11123.2</v>
+        <v>133439.9</v>
       </c>
       <c r="F54" s="2">
         <v>0.1</v>
@@ -9837,44 +9840,44 @@
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
-        <v>30019.0</v>
+        <v>33354.0</v>
       </c>
       <c r="Q54" s="2">
         <v>0.1</v>
       </c>
       <c r="R54" s="1">
-        <v>30019.0</v>
+        <v>33354.0</v>
       </c>
       <c r="S54" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U54" s="6">
-        <v>30019</v>
+        <v>33354</v>
       </c>
       <c r="V54" s="2">
         <v>1</v>
       </c>
       <c r="W54" s="1">
-        <v>300.19</v>
+        <v>0</v>
       </c>
       <c r="X54" s="2">
         <v>0.01</v>
       </c>
       <c r="Y54" s="1">
-        <v>-11123.2</v>
+        <v>-133439.9</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD54">
         <v>0</v>
@@ -9896,7 +9899,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>12235.3</v>
+        <v>146784.0</v>
       </c>
       <c r="F55" s="2">
         <v>0.1</v>
@@ -9913,44 +9916,44 @@
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
-        <v>27017.0</v>
+        <v>30019.0</v>
       </c>
       <c r="Q55" s="2">
         <v>0.1</v>
       </c>
       <c r="R55" s="1">
-        <v>27017.0</v>
+        <v>30019.0</v>
       </c>
       <c r="S55" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U55" s="6">
-        <v>27017</v>
+        <v>30019</v>
       </c>
       <c r="V55" s="2">
         <v>1</v>
       </c>
       <c r="W55" s="1">
-        <v>270.17</v>
+        <v>0</v>
       </c>
       <c r="X55" s="2">
         <v>0.01</v>
       </c>
       <c r="Y55" s="1">
-        <v>-12235.3</v>
+        <v>-146784.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -9972,7 +9975,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>13458.5</v>
+        <v>161462.4</v>
       </c>
       <c r="F56" s="2">
         <v>0.1</v>
@@ -9989,44 +9992,44 @@
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
-        <v>24315.0</v>
+        <v>27017.0</v>
       </c>
       <c r="Q56" s="2">
         <v>0.1</v>
       </c>
       <c r="R56" s="1">
-        <v>24315.0</v>
+        <v>27017.0</v>
       </c>
       <c r="S56" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U56" s="6">
-        <v>24315</v>
+        <v>27017</v>
       </c>
       <c r="V56" s="2">
         <v>1</v>
       </c>
       <c r="W56" s="1">
-        <v>243.15</v>
+        <v>0</v>
       </c>
       <c r="X56" s="2">
         <v>0.01</v>
       </c>
       <c r="Y56" s="1">
-        <v>-13458.5</v>
+        <v>-161462.4</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD56">
         <v>0</v>
@@ -10048,7 +10051,7 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>14804.9</v>
+        <v>177608.2</v>
       </c>
       <c r="F57" s="14">
         <v>0.1</v>
@@ -10065,44 +10068,44 @@
       <c r="N57" s="13"/>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
-        <v>21884.0</v>
+        <v>24315.0</v>
       </c>
       <c r="Q57" s="14">
         <v>0.1</v>
       </c>
       <c r="R57" s="13">
-        <v>21884.0</v>
+        <v>24315.0</v>
       </c>
       <c r="S57" s="13">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U57" s="13">
-        <v>21884</v>
+        <v>24315</v>
       </c>
       <c r="V57" s="14">
         <v>1</v>
       </c>
       <c r="W57" s="13">
-        <v>218.84</v>
+        <v>0</v>
       </c>
       <c r="X57" s="14">
         <v>0.01</v>
       </c>
       <c r="Y57" s="13">
-        <v>-14804.9</v>
+        <v>-177608.2</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0</v>
@@ -10125,7 +10128,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>16285.5</v>
+        <v>195368.8</v>
       </c>
       <c r="F58" s="2">
         <v>0.1</v>
@@ -10142,44 +10145,44 @@
       <c r="N58" s="1"/>
       <c r="O58" s="2"/>
       <c r="P58" s="6">
-        <v>19696.0</v>
+        <v>21884.0</v>
       </c>
       <c r="Q58" s="2">
         <v>0.1</v>
       </c>
       <c r="R58" s="1">
-        <v>19696.0</v>
+        <v>21884.0</v>
       </c>
       <c r="S58" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U58" s="6">
-        <v>19696</v>
+        <v>21884</v>
       </c>
       <c r="V58" s="2">
         <v>1</v>
       </c>
       <c r="W58" s="1">
-        <v>196.96</v>
+        <v>0</v>
       </c>
       <c r="X58" s="2">
         <v>0.01</v>
       </c>
       <c r="Y58" s="1">
-        <v>-16285.5</v>
+        <v>-195368.8</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD58">
         <v>0</v>
@@ -10201,7 +10204,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>17914.6</v>
+        <v>214905.9</v>
       </c>
       <c r="F59" s="2">
         <v>0.1</v>
@@ -10218,44 +10221,44 @@
       <c r="N59" s="1"/>
       <c r="O59" s="2"/>
       <c r="P59" s="6">
-        <v>17726.0</v>
+        <v>19696.0</v>
       </c>
       <c r="Q59" s="2">
         <v>0.1</v>
       </c>
       <c r="R59" s="1">
-        <v>17726.0</v>
+        <v>19696.0</v>
       </c>
       <c r="S59" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U59" s="6">
-        <v>17726</v>
+        <v>19696</v>
       </c>
       <c r="V59" s="2">
         <v>1</v>
       </c>
       <c r="W59" s="1">
-        <v>177.26</v>
+        <v>0</v>
       </c>
       <c r="X59" s="2">
         <v>0.01</v>
       </c>
       <c r="Y59" s="1">
-        <v>-17914.6</v>
+        <v>-214905.9</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD59">
         <v>0</v>
@@ -10277,7 +10280,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>19706.5</v>
+        <v>236396.6</v>
       </c>
       <c r="F60" s="2">
         <v>0.1</v>
@@ -10294,44 +10297,44 @@
       <c r="N60" s="1"/>
       <c r="O60" s="2"/>
       <c r="P60" s="6">
-        <v>15953.0</v>
+        <v>17726.0</v>
       </c>
       <c r="Q60" s="2">
         <v>0.1</v>
       </c>
       <c r="R60" s="1">
-        <v>15953.0</v>
+        <v>17726.0</v>
       </c>
       <c r="S60" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U60" s="6">
-        <v>15953</v>
+        <v>17726</v>
       </c>
       <c r="V60" s="2">
         <v>1</v>
       </c>
       <c r="W60" s="1">
-        <v>159.53</v>
+        <v>0</v>
       </c>
       <c r="X60" s="2">
         <v>0.01</v>
       </c>
       <c r="Y60" s="1">
-        <v>-19706.5</v>
+        <v>-236396.6</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD60">
         <v>0</v>
@@ -10353,7 +10356,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>21677.7</v>
+        <v>260036.7</v>
       </c>
       <c r="F61" s="2">
         <v>0.1</v>
@@ -10370,44 +10373,44 @@
       <c r="N61" s="1"/>
       <c r="O61" s="2"/>
       <c r="P61" s="6">
-        <v>14358.0</v>
+        <v>15953.0</v>
       </c>
       <c r="Q61" s="2">
         <v>0.1</v>
       </c>
       <c r="R61" s="1">
-        <v>14358.0</v>
+        <v>15953.0</v>
       </c>
       <c r="S61" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U61" s="6">
-        <v>14358</v>
+        <v>15953</v>
       </c>
       <c r="V61" s="2">
         <v>1</v>
       </c>
       <c r="W61" s="1">
-        <v>143.58</v>
+        <v>0</v>
       </c>
       <c r="X61" s="2">
         <v>0.01</v>
       </c>
       <c r="Y61" s="1">
-        <v>-21677.7</v>
+        <v>-260036.7</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD61">
         <v>0</v>
@@ -10429,7 +10432,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>23845.8</v>
+        <v>286040.7</v>
       </c>
       <c r="F62" s="2">
         <v>0.1</v>
@@ -10446,44 +10449,44 @@
       <c r="N62" s="1"/>
       <c r="O62" s="2"/>
       <c r="P62" s="6">
-        <v>12922.0</v>
+        <v>14358.0</v>
       </c>
       <c r="Q62" s="2">
         <v>0.1</v>
       </c>
       <c r="R62" s="1">
-        <v>12922.0</v>
+        <v>14358.0</v>
       </c>
       <c r="S62" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U62" s="6">
-        <v>12922</v>
+        <v>14358</v>
       </c>
       <c r="V62" s="2">
         <v>1</v>
       </c>
       <c r="W62" s="1">
-        <v>129.22</v>
+        <v>0</v>
       </c>
       <c r="X62" s="2">
         <v>0.01</v>
       </c>
       <c r="Y62" s="1">
-        <v>-23845.8</v>
+        <v>-286040.7</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -10505,7 +10508,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>26230.6</v>
+        <v>314645.1</v>
       </c>
       <c r="F63" s="2">
         <v>0.1</v>
@@ -10522,44 +10525,44 @@
       <c r="N63" s="1"/>
       <c r="O63" s="2"/>
       <c r="P63" s="6">
-        <v>11630.0</v>
+        <v>12922.0</v>
       </c>
       <c r="Q63" s="2">
         <v>0.1</v>
       </c>
       <c r="R63" s="1">
-        <v>11630.0</v>
+        <v>12922.0</v>
       </c>
       <c r="S63" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U63" s="6">
-        <v>11630</v>
+        <v>12922</v>
       </c>
       <c r="V63" s="2">
         <v>1</v>
       </c>
       <c r="W63" s="1">
-        <v>116.3</v>
+        <v>0</v>
       </c>
       <c r="X63" s="2">
         <v>0.01</v>
       </c>
       <c r="Y63" s="1">
-        <v>-26230.6</v>
+        <v>-314645.1</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -10581,7 +10584,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>28854.1</v>
+        <v>346109.5</v>
       </c>
       <c r="F64" s="2">
         <v>0.1</v>
@@ -10598,44 +10601,44 @@
       <c r="N64" s="1"/>
       <c r="O64" s="2"/>
       <c r="P64" s="6">
-        <v>10467.0</v>
+        <v>11630.0</v>
       </c>
       <c r="Q64" s="2">
         <v>0.1</v>
       </c>
       <c r="R64" s="1">
-        <v>10467.0</v>
+        <v>11630.0</v>
       </c>
       <c r="S64" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U64" s="6">
-        <v>10467</v>
+        <v>11630</v>
       </c>
       <c r="V64" s="2">
         <v>1</v>
       </c>
       <c r="W64" s="1">
-        <v>104.67</v>
+        <v>0</v>
       </c>
       <c r="X64" s="2">
         <v>0.01</v>
       </c>
       <c r="Y64" s="1">
-        <v>-28854.1</v>
+        <v>-346109.5</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD64">
         <v>0</v>
@@ -10657,7 +10660,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>31739.4</v>
+        <v>380721.0</v>
       </c>
       <c r="F65" s="2">
         <v>0.1</v>
@@ -10674,44 +10677,44 @@
       <c r="N65" s="1"/>
       <c r="O65" s="2"/>
       <c r="P65" s="6">
-        <v>9420.0</v>
+        <v>10467.0</v>
       </c>
       <c r="Q65" s="2">
         <v>0.1</v>
       </c>
       <c r="R65" s="1">
-        <v>9420.0</v>
+        <v>10467.0</v>
       </c>
       <c r="S65" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U65" s="6">
-        <v>9420</v>
+        <v>10467</v>
       </c>
       <c r="V65" s="2">
         <v>1</v>
       </c>
       <c r="W65" s="1">
-        <v>94.2</v>
+        <v>0</v>
       </c>
       <c r="X65" s="2">
         <v>0.01</v>
       </c>
       <c r="Y65" s="1">
-        <v>-31739.4</v>
+        <v>-380721.0</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD65">
         <v>0</v>
@@ -10733,7 +10736,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>34912.9</v>
+        <v>418793.1</v>
       </c>
       <c r="F66" s="2">
         <v>0.1</v>
@@ -10750,44 +10753,44 @@
       <c r="N66" s="1"/>
       <c r="O66" s="2"/>
       <c r="P66" s="6">
-        <v>8478.0</v>
+        <v>9420.0</v>
       </c>
       <c r="Q66" s="2">
         <v>0.1</v>
       </c>
       <c r="R66" s="1">
-        <v>8478.0</v>
+        <v>9420.0</v>
       </c>
       <c r="S66" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U66" s="6">
-        <v>8478</v>
+        <v>9420</v>
       </c>
       <c r="V66" s="2">
         <v>1</v>
       </c>
       <c r="W66" s="1">
-        <v>84.78</v>
+        <v>0</v>
       </c>
       <c r="X66" s="2">
         <v>0.01</v>
       </c>
       <c r="Y66" s="1">
-        <v>-34912.9</v>
+        <v>-418793.1</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD66">
         <v>0</v>
@@ -10809,7 +10812,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>38404.3</v>
+        <v>460672.3</v>
       </c>
       <c r="F67" s="2">
         <v>0.1</v>
@@ -10826,44 +10829,44 @@
       <c r="N67" s="1"/>
       <c r="O67" s="2"/>
       <c r="P67" s="6">
-        <v>7630.0</v>
+        <v>8478.0</v>
       </c>
       <c r="Q67" s="2">
         <v>0.1</v>
       </c>
       <c r="R67" s="1">
-        <v>7630.0</v>
+        <v>8478.0</v>
       </c>
       <c r="S67" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U67" s="6">
-        <v>7630</v>
+        <v>8478</v>
       </c>
       <c r="V67" s="2">
         <v>1</v>
       </c>
       <c r="W67" s="1">
-        <v>76.3</v>
+        <v>0</v>
       </c>
       <c r="X67" s="2">
         <v>0.01</v>
       </c>
       <c r="Y67" s="1">
-        <v>-38404.3</v>
+        <v>-460672.3</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD67">
         <v>0</v>
@@ -10885,7 +10888,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>42244.4</v>
+        <v>506739.2</v>
       </c>
       <c r="F68" s="2">
         <v>0.1</v>
@@ -10902,44 +10905,44 @@
       <c r="N68" s="1"/>
       <c r="O68" s="2"/>
       <c r="P68" s="6">
-        <v>6867.0</v>
+        <v>7630.0</v>
       </c>
       <c r="Q68" s="2">
         <v>0.1</v>
       </c>
       <c r="R68" s="1">
-        <v>6867.0</v>
+        <v>7630.0</v>
       </c>
       <c r="S68" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U68" s="6">
-        <v>6867</v>
+        <v>7630</v>
       </c>
       <c r="V68" s="2">
         <v>1</v>
       </c>
       <c r="W68" s="1">
-        <v>68.67</v>
+        <v>0</v>
       </c>
       <c r="X68" s="2">
         <v>0.01</v>
       </c>
       <c r="Y68" s="1">
-        <v>-42244.4</v>
+        <v>-506739.2</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD68">
         <v>0</v>
@@ -10961,7 +10964,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>46468.4</v>
+        <v>557412.9</v>
       </c>
       <c r="F69" s="2">
         <v>0.1</v>
@@ -10978,44 +10981,44 @@
       <c r="N69" s="1"/>
       <c r="O69" s="2"/>
       <c r="P69" s="6">
-        <v>6180.0</v>
+        <v>6867.0</v>
       </c>
       <c r="Q69" s="2">
         <v>0.1</v>
       </c>
       <c r="R69" s="1">
-        <v>6180.0</v>
+        <v>6867.0</v>
       </c>
       <c r="S69" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U69" s="6">
-        <v>6180</v>
+        <v>6867</v>
       </c>
       <c r="V69" s="2">
         <v>1</v>
       </c>
       <c r="W69" s="1">
-        <v>61.8</v>
+        <v>0</v>
       </c>
       <c r="X69" s="2">
         <v>0.01</v>
       </c>
       <c r="Y69" s="1">
-        <v>-46468.4</v>
+        <v>-557412.9</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD69">
         <v>0</v>
@@ -11037,7 +11040,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>51114.8</v>
+        <v>613154.3</v>
       </c>
       <c r="F70" s="2">
         <v>0.1</v>
@@ -11054,44 +11057,44 @@
       <c r="N70" s="1"/>
       <c r="O70" s="2"/>
       <c r="P70" s="6">
-        <v>5562.0</v>
+        <v>6180.0</v>
       </c>
       <c r="Q70" s="2">
         <v>0.1</v>
       </c>
       <c r="R70" s="1">
-        <v>5562.0</v>
+        <v>6180.0</v>
       </c>
       <c r="S70" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U70" s="6">
-        <v>5562</v>
+        <v>6180</v>
       </c>
       <c r="V70" s="2">
         <v>1</v>
       </c>
       <c r="W70" s="1">
-        <v>55.62</v>
+        <v>0</v>
       </c>
       <c r="X70" s="2">
         <v>0.01</v>
       </c>
       <c r="Y70" s="1">
-        <v>-51114.8</v>
+        <v>-613154.3</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -11113,7 +11116,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>56226.5</v>
+        <v>674469.4</v>
       </c>
       <c r="F71" s="2">
         <v>0.1</v>
@@ -11130,44 +11133,44 @@
       <c r="N71" s="1"/>
       <c r="O71" s="2"/>
       <c r="P71" s="6">
-        <v>5006.0</v>
+        <v>5562.0</v>
       </c>
       <c r="Q71" s="2">
         <v>0.1</v>
       </c>
       <c r="R71" s="1">
-        <v>5006.0</v>
+        <v>5562.0</v>
       </c>
       <c r="S71" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U71" s="6">
-        <v>5006</v>
+        <v>5562</v>
       </c>
       <c r="V71" s="2">
         <v>1</v>
       </c>
       <c r="W71" s="1">
-        <v>50.06</v>
+        <v>0</v>
       </c>
       <c r="X71" s="2">
         <v>0.01</v>
       </c>
       <c r="Y71" s="1">
-        <v>-56226.5</v>
+        <v>-674469.4</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD71">
         <v>0</v>
@@ -11189,7 +11192,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>61849.7</v>
+        <v>741915.9</v>
       </c>
       <c r="F72" s="16">
         <v>0.1</v>
@@ -11206,44 +11209,44 @@
       <c r="N72" s="5"/>
       <c r="O72" s="16"/>
       <c r="P72" s="5">
-        <v>4505.0</v>
+        <v>5006.0</v>
       </c>
       <c r="Q72" s="16">
         <v>0.1</v>
       </c>
       <c r="R72" s="5">
-        <v>4505.0</v>
+        <v>5006.0</v>
       </c>
       <c r="S72" s="5">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="T72" s="5">
-        <v>180000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="U72" s="5">
-        <v>4505</v>
+        <v>5006</v>
       </c>
       <c r="V72" s="16">
         <v>1</v>
       </c>
       <c r="W72" s="5">
-        <v>45.05</v>
+        <v>0</v>
       </c>
       <c r="X72" s="16">
         <v>0.01</v>
       </c>
       <c r="Y72" s="5">
-        <v>-61849.7</v>
+        <v>-741915.9</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0</v>
@@ -11515,14 +11518,574 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>2022</v>
+      </c>
+      <c r="B37">
+        <v>100.0</v>
+      </c>
+      <c r="C37">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>2023</v>
+      </c>
+      <c r="B38">
+        <v>100.0</v>
+      </c>
+      <c r="C38">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>2024</v>
+      </c>
+      <c r="B39">
+        <v>100.0</v>
+      </c>
+      <c r="C39">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>2025</v>
+      </c>
+      <c r="B40">
+        <v>100.0</v>
+      </c>
+      <c r="C40">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>2026</v>
+      </c>
+      <c r="B41">
+        <v>100.0</v>
+      </c>
+      <c r="C41">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>2027</v>
+      </c>
+      <c r="B42">
+        <v>100.0</v>
+      </c>
+      <c r="C42">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>2028</v>
+      </c>
+      <c r="B43">
+        <v>100.0</v>
+      </c>
+      <c r="C43">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>2029</v>
+      </c>
+      <c r="B44">
+        <v>100.0</v>
+      </c>
+      <c r="C44">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>2030</v>
+      </c>
+      <c r="B45">
+        <v>100.0</v>
+      </c>
+      <c r="C45">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>2031</v>
+      </c>
+      <c r="B46">
+        <v>100.0</v>
+      </c>
+      <c r="C46">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>2032</v>
+      </c>
+      <c r="B47">
+        <v>100.0</v>
+      </c>
+      <c r="C47">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>2033</v>
+      </c>
+      <c r="B48">
+        <v>100.0</v>
+      </c>
+      <c r="C48">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>2034</v>
+      </c>
+      <c r="B49">
+        <v>100.0</v>
+      </c>
+      <c r="C49">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>2035</v>
+      </c>
+      <c r="B50">
+        <v>100.0</v>
+      </c>
+      <c r="C50">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>2036</v>
+      </c>
+      <c r="B51">
+        <v>100.0</v>
+      </c>
+      <c r="C51">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>2037</v>
+      </c>
+      <c r="B52">
+        <v>100.0</v>
+      </c>
+      <c r="C52">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>2038</v>
+      </c>
+      <c r="B53">
+        <v>100.0</v>
+      </c>
+      <c r="C53">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>2039</v>
+      </c>
+      <c r="B54">
+        <v>100.0</v>
+      </c>
+      <c r="C54">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>2040</v>
+      </c>
+      <c r="B55">
+        <v>100.0</v>
+      </c>
+      <c r="C55">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>2041</v>
+      </c>
+      <c r="B56">
+        <v>100.0</v>
+      </c>
+      <c r="C56">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>2042</v>
+      </c>
+      <c r="B57">
+        <v>100.0</v>
+      </c>
+      <c r="C57">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>2043</v>
+      </c>
+      <c r="B58">
+        <v>100.0</v>
+      </c>
+      <c r="C58">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>2044</v>
+      </c>
+      <c r="B59">
+        <v>100.0</v>
+      </c>
+      <c r="C59">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>2045</v>
+      </c>
+      <c r="B60">
+        <v>100.0</v>
+      </c>
+      <c r="C60">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>2046</v>
+      </c>
+      <c r="B61">
+        <v>100.0</v>
+      </c>
+      <c r="C61">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>2047</v>
+      </c>
+      <c r="B62">
+        <v>100.0</v>
+      </c>
+      <c r="C62">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>2048</v>
+      </c>
+      <c r="B63">
+        <v>100.0</v>
+      </c>
+      <c r="C63">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>2049</v>
+      </c>
+      <c r="B64">
+        <v>100.0</v>
+      </c>
+      <c r="C64">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>2050</v>
+      </c>
+      <c r="B65">
+        <v>100.0</v>
+      </c>
+      <c r="C65">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>2051</v>
+      </c>
+      <c r="B66">
+        <v>100.0</v>
+      </c>
+      <c r="C66">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>2052</v>
+      </c>
+      <c r="B67">
+        <v>100.0</v>
+      </c>
+      <c r="C67">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>2053</v>
+      </c>
+      <c r="B68">
+        <v>100.0</v>
+      </c>
+      <c r="C68">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>2054</v>
+      </c>
+      <c r="B69">
+        <v>100.0</v>
+      </c>
+      <c r="C69">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>2055</v>
+      </c>
+      <c r="B70">
+        <v>100.0</v>
+      </c>
+      <c r="C70">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>2056</v>
+      </c>
+      <c r="B71">
+        <v>100.0</v>
+      </c>
+      <c r="C71">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>2057</v>
+      </c>
+      <c r="B72">
+        <v>100.0</v>
+      </c>
+      <c r="C72">
+        <v>100.0</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
